--- a/data/iartypre05.xlsx
+++ b/data/iartypre05.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.67630894714781087</v>
+        <v>0.94625510266202151</v>
       </c>
       <c r="B1">
-        <v>0.71146295357920475</v>
+        <v>0.92772567894056601</v>
       </c>
       <c r="C1">
-        <v>0.32369105285218913</v>
+        <v>0.053744897337978569</v>
       </c>
       <c r="D1">
-        <v>0.28853704642079536</v>
+        <v>0.072274321059433974</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.026147892545123074</v>
+        <v>0.0050455905293000942</v>
       </c>
       <c r="B2">
-        <v>0.021393434266719975</v>
+        <v>0.0060694362975975595</v>
       </c>
       <c r="C2">
-        <v>0.026147892545123074</v>
+        <v>0.0050455905293000942</v>
       </c>
       <c r="D2">
-        <v>0.021393434266719975</v>
+        <v>0.0060694362975975595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>25.864759310170538</v>
+        <v>187.54100182467295</v>
       </c>
       <c r="B3">
-        <v>33.256135724125869</v>
+        <v>152.85203327824431</v>
       </c>
       <c r="C3">
-        <v>12.379240594384413</v>
+        <v>10.651854728575024</v>
       </c>
       <c r="D3">
-        <v>13.487177552864852</v>
+        <v>11.907913274918467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.0869354289916493e-106</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>4.1100177847842199e-151</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.1195132726144645e-32</v>
+        <v>3.7635077120901837e-26</v>
       </c>
       <c r="D4">
-        <v>2.2465345624121443e-37</v>
+        <v>3.6568077301231906e-32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.62497944217945078</v>
+        <v>0.9363629880628237</v>
       </c>
       <c r="B5">
-        <v>0.66946666693434853</v>
+        <v>0.91582626715522353</v>
       </c>
       <c r="C5">
-        <v>0.27236154788382899</v>
+        <v>0.043852782738780752</v>
       </c>
       <c r="D5">
-        <v>0.24654075977593909</v>
+        <v>0.06037490927409149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.72763845211617095</v>
+        <v>0.95614721726121932</v>
       </c>
       <c r="B6">
-        <v>0.75345924022406097</v>
+        <v>0.9396250907259085</v>
       </c>
       <c r="C6">
-        <v>0.37502055782054927</v>
+        <v>0.063637011937176385</v>
       </c>
       <c r="D6">
-        <v>0.33053333306565164</v>
+        <v>0.084173732844776458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B7">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C7">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D7">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B8">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C8">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D8">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="9">
@@ -182,114 +182,114 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.55326662348054723</v>
+        <v>0.92577041832852713</v>
       </c>
       <c r="B11">
-        <v>0.49021852176998237</v>
+        <v>0.87098546668386767</v>
       </c>
       <c r="C11">
-        <v>0.44673337651945283</v>
+        <v>0.074229581671472838</v>
       </c>
       <c r="D11">
-        <v>0.50978147823001763</v>
+        <v>0.12901453331613236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.027761461910310772</v>
+        <v>0.0058079528609745398</v>
       </c>
       <c r="B12">
-        <v>0.023152569214669089</v>
+        <v>0.007573288671393774</v>
       </c>
       <c r="C12">
-        <v>0.027761461910310772</v>
+        <v>0.0058079528609745398</v>
       </c>
       <c r="D12">
-        <v>0.023152569214669089</v>
+        <v>0.007573288671393774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>19.929304345282361</v>
+        <v>159.39702688516456</v>
       </c>
       <c r="B13">
-        <v>21.173396231956318</v>
+        <v>115.00756203494527</v>
       </c>
       <c r="C13">
-        <v>16.091853446432999</v>
+        <v>12.780679087505121</v>
       </c>
       <c r="D13">
-        <v>22.018354572374129</v>
+        <v>17.035470178689064</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1.3371371018904956e-71</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>8.6400595609829296e-79</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.8860713430206067e-50</v>
+        <v>1.056391044308132e-36</v>
       </c>
       <c r="D14">
-        <v>9.7375120674844188e-84</v>
+        <v>6.4508151413241773e-63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.49876960829681244</v>
+        <v>0.91438365696652879</v>
       </c>
       <c r="B15">
-        <v>0.4447689730354587</v>
+        <v>0.85613768246610522</v>
       </c>
       <c r="C15">
-        <v>0.39223636133571804</v>
+        <v>0.062842820309474523</v>
       </c>
       <c r="D15">
-        <v>0.46433192949549396</v>
+        <v>0.11416674909836988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.60776363866428196</v>
+        <v>0.93715717969052548</v>
       </c>
       <c r="B16">
-        <v>0.53566807050450604</v>
+        <v>0.88583325090163012</v>
       </c>
       <c r="C16">
-        <v>0.50123039170318762</v>
+        <v>0.085616343033471154</v>
       </c>
       <c r="D16">
-        <v>0.5552310269645413</v>
+        <v>0.14386231753389483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B17">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C17">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D17">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B18">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C18">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D18">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="19">
@@ -308,114 +308,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.77042442937164191</v>
+        <v>0.96218268238330018</v>
       </c>
       <c r="B21">
-        <v>0.7983185246508131</v>
+        <v>0.94971469292250299</v>
       </c>
       <c r="C21">
-        <v>0.22957557062835804</v>
+        <v>0.037817317616699944</v>
       </c>
       <c r="D21">
-        <v>0.20168147534918698</v>
+        <v>0.050285307077496941</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.023358460131328092</v>
+        <v>0.0042748770045600631</v>
       </c>
       <c r="B22">
-        <v>0.01872753229907095</v>
+        <v>0.0051581246117377074</v>
       </c>
       <c r="C22">
-        <v>0.023358460131328092</v>
+        <v>0.0042748770045600631</v>
       </c>
       <c r="D22">
-        <v>0.01872753229907095</v>
+        <v>0.0051581246117377074</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>32.982672018621543</v>
+        <v>225.07844818855099</v>
       </c>
       <c r="B23">
-        <v>42.628068231414382</v>
+        <v>184.12015304193204</v>
       </c>
       <c r="C23">
-        <v>9.8283692220127978</v>
+        <v>8.8464106865202794</v>
       </c>
       <c r="D23">
-        <v>10.769249900543072</v>
+        <v>9.7487577099376139</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.7333403221944558e-149</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>6.1075552277704907e-205</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.473845537433103e-21</v>
+        <v>1.3223145261127195e-18</v>
       </c>
       <c r="D24">
-        <v>2.7268772453913134e-25</v>
+        <v>3.2602646159198551e-22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.72457070738256812</v>
+        <v>0.95380158744881893</v>
       </c>
       <c r="B25">
-        <v>0.76155552508855673</v>
+        <v>0.93960195002750435</v>
       </c>
       <c r="C25">
-        <v>0.18372184863928429</v>
+        <v>0.029436222682218689</v>
       </c>
       <c r="D25">
-        <v>0.16491847578693059</v>
+        <v>0.040172564182498267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.81627815136071569</v>
+        <v>0.97056377731778143</v>
       </c>
       <c r="B26">
-        <v>0.83508152421306947</v>
+        <v>0.95982743581750163</v>
       </c>
       <c r="C26">
-        <v>0.27542929261743176</v>
+        <v>0.046198412551181199</v>
       </c>
       <c r="D26">
-        <v>0.23844447491144338</v>
+        <v>0.060398049972495614</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B27">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C27">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D27">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B28">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C28">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D28">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="29">
@@ -434,162 +434,162 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.69072164948453607</v>
+        <v>0.98394863563402901</v>
       </c>
       <c r="B31">
-        <v>0.69205298013245031</v>
+        <v>0.92835130970724189</v>
       </c>
       <c r="C31">
-        <v>0.70399999999999996</v>
+        <v>0.87802197802197812</v>
       </c>
       <c r="D31">
-        <v>0.30927835051546393</v>
+        <v>0.016051364365971106</v>
       </c>
       <c r="E31">
-        <v>0.30794701986754969</v>
+        <v>0.071648690292758083</v>
       </c>
       <c r="F31">
-        <v>0.29599999999999999</v>
+        <v>0.12197802197802196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.046928905696545224</v>
+        <v>0.002906949852808365</v>
       </c>
       <c r="B32">
-        <v>0.026564656399247502</v>
+        <v>0.0071585153249822085</v>
       </c>
       <c r="C32">
-        <v>0.023573092004797902</v>
+        <v>0.010848577368239186</v>
       </c>
       <c r="D32">
-        <v>0.046928905696545224</v>
+        <v>0.002906949852808365</v>
       </c>
       <c r="E32">
-        <v>0.026564656399247502</v>
+        <v>0.0071585153249822085</v>
       </c>
       <c r="F32">
-        <v>0.023573092004797902</v>
+        <v>0.010848577368239186</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>14.718469123293133</v>
+        <v>338.48146182619888</v>
       </c>
       <c r="B33">
-        <v>26.051644325128713</v>
+        <v>129.68489519990644</v>
       </c>
       <c r="C33">
-        <v>29.864559127700037</v>
+        <v>80.934296564314252</v>
       </c>
       <c r="D33">
-        <v>6.5903593089372237</v>
+        <v>5.5217204213083004</v>
       </c>
       <c r="E33">
-        <v>11.59235847960273</v>
+        <v>10.008875729121408</v>
       </c>
       <c r="F33">
-        <v>12.556689633237516</v>
+        <v>11.243688258621878</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2.1305290799899797e-43</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>8.1333475238373334e-108</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>8.110677709936718e-131</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>8.12987959928796e-11</v>
+        <v>3.5661200032859765e-08</v>
       </c>
       <c r="E34">
-        <v>9.3318674095428795e-29</v>
+        <v>2.5848243217638179e-23</v>
       </c>
       <c r="F34">
-        <v>4.8910212356937153e-33</v>
+        <v>6.6027166517973569e-29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.59859806843670882</v>
+        <v>0.97824942542045457</v>
       </c>
       <c r="B35">
-        <v>0.63990534872105098</v>
+        <v>0.91431670790124464</v>
       </c>
       <c r="C35">
-        <v>0.65772494585971653</v>
+        <v>0.85675283817765302</v>
       </c>
       <c r="D35">
-        <v>0.21715476946763673</v>
+        <v>0.010352154152396665</v>
       </c>
       <c r="E35">
-        <v>0.25579938845615036</v>
+        <v>0.05761408848676082</v>
       </c>
       <c r="F35">
-        <v>0.24972494585971652</v>
+        <v>0.10070888213369689</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.78284523053236332</v>
+        <v>0.98964784584760346</v>
       </c>
       <c r="B36">
-        <v>0.74420061154384964</v>
+        <v>0.94238591151323914</v>
       </c>
       <c r="C36">
-        <v>0.75027505414028339</v>
+        <v>0.89929111786630322</v>
       </c>
       <c r="D36">
-        <v>0.40140193156329113</v>
+        <v>0.021750574579545545</v>
       </c>
       <c r="E36">
-        <v>0.36009465127894902</v>
+        <v>0.085683292098755345</v>
       </c>
       <c r="F36">
-        <v>0.34227505414028347</v>
+        <v>0.14324716182234704</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B37">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C37">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D37">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E37">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F37">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B38">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C38">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D38">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E38">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F38">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="39">
@@ -614,162 +614,162 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.65979381443298968</v>
+        <v>0.9823434991974318</v>
       </c>
       <c r="B41">
-        <v>0.54966887417218546</v>
+        <v>0.89522342064714944</v>
       </c>
       <c r="C41">
-        <v>0.45333333333333331</v>
+        <v>0.77472527472527475</v>
       </c>
       <c r="D41">
-        <v>0.34020618556701032</v>
+        <v>0.017656500802568219</v>
       </c>
       <c r="E41">
-        <v>0.45033112582781454</v>
+        <v>0.10477657935285054</v>
       </c>
       <c r="F41">
-        <v>0.54666666666666663</v>
+        <v>0.22527472527472528</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.048104904359028637</v>
+        <v>0.0030463468971636</v>
       </c>
       <c r="B42">
-        <v>0.028629455200793887</v>
+        <v>0.0085008133288015288</v>
       </c>
       <c r="C42">
-        <v>0.025707183028470061</v>
+        <v>0.013848712536943761</v>
       </c>
       <c r="D42">
-        <v>0.048104904359028637</v>
+        <v>0.0030463468971636</v>
       </c>
       <c r="E42">
-        <v>0.028629455200793887</v>
+        <v>0.0085008133288015288</v>
       </c>
       <c r="F42">
-        <v>0.025707183028470061</v>
+        <v>0.013848712536943761</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>13.715728639821219</v>
+        <v>322.46606586796617</v>
       </c>
       <c r="B43">
-        <v>19.199417883332384</v>
+        <v>105.31032573248622</v>
       </c>
       <c r="C43">
-        <v>17.634500553066356</v>
+        <v>55.942043179722681</v>
       </c>
       <c r="D43">
-        <v>7.0721725799078161</v>
+        <v>5.7959587002412221</v>
       </c>
       <c r="E43">
-        <v>15.729643567067493</v>
+        <v>12.325477022046579</v>
       </c>
       <c r="F43">
-        <v>21.265133019874135</v>
+        <v>16.266835250841346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.8067967252011323e-38</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>1.9093560933287412e-67</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>9.9123440748060088e-59</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>3.4246297939145247e-12</v>
+        <v>7.307125830404787e-09</v>
       </c>
       <c r="E44">
-        <v>1.4692021529487398e-48</v>
+        <v>2.6791250002259211e-34</v>
       </c>
       <c r="F44">
-        <v>2.5213202692115266e-79</v>
+        <v>1.0771903190847827e-57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.56536169440503015</v>
+        <v>0.97637099460343868</v>
       </c>
       <c r="B45">
-        <v>0.49346794859339799</v>
+        <v>0.87855718125523474</v>
       </c>
       <c r="C45">
-        <v>0.40286896123507376</v>
+        <v>0.74757423052712446</v>
       </c>
       <c r="D45">
-        <v>0.24577406553905082</v>
+        <v>0.011683996208575095</v>
       </c>
       <c r="E45">
-        <v>0.39413020024902706</v>
+        <v>0.088110339960935841</v>
       </c>
       <c r="F45">
-        <v>0.49620229456840709</v>
+        <v>0.19812368107657502</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.75422593446094921</v>
+        <v>0.98831600379142492</v>
       </c>
       <c r="B46">
-        <v>0.60586979975097299</v>
+        <v>0.91188966003906413</v>
       </c>
       <c r="C46">
-        <v>0.50379770543159286</v>
+        <v>0.80187631892342504</v>
       </c>
       <c r="D46">
-        <v>0.43463830559496985</v>
+        <v>0.023629005396561341</v>
       </c>
       <c r="E46">
-        <v>0.50653205140660207</v>
+        <v>0.12144281874476523</v>
       </c>
       <c r="F46">
-        <v>0.59713103876492613</v>
+        <v>0.25242576947287554</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B47">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C47">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D47">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E47">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F47">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B48">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C48">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D48">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E48">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F48">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="49">
@@ -794,162 +794,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.64948453608247425</v>
+        <v>0.98180845371856607</v>
       </c>
       <c r="B51">
-        <v>0.75827814569536423</v>
+        <v>0.94375963020030817</v>
       </c>
       <c r="C51">
-        <v>0.84266666666666656</v>
+        <v>0.93516483516483517</v>
       </c>
       <c r="D51">
-        <v>0.35051546391752575</v>
+        <v>0.018191546281433921</v>
       </c>
       <c r="E51">
-        <v>0.24172185430463577</v>
+        <v>0.056240369799691839</v>
       </c>
       <c r="F51">
-        <v>0.15733333333333333</v>
+        <v>0.064835164835164841</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.048445353789988883</v>
+        <v>0.0030913169896519257</v>
       </c>
       <c r="B52">
-        <v>0.024635918392063472</v>
+        <v>0.0063946596679165767</v>
       </c>
       <c r="C52">
-        <v>0.018802805149271792</v>
+        <v>0.0081626034305724519</v>
       </c>
       <c r="D52">
-        <v>0.048445353789988883</v>
+        <v>0.0030913169896519257</v>
       </c>
       <c r="E52">
-        <v>0.024635918392063472</v>
+        <v>0.0063946596679165767</v>
       </c>
       <c r="F52">
-        <v>0.018802805149271792</v>
+        <v>0.0081626034305724519</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>13.406539229706041</v>
+        <v>317.60199843792634</v>
       </c>
       <c r="B53">
-        <v>30.779373986709</v>
+        <v>147.58559160471967</v>
       </c>
       <c r="C53">
-        <v>44.816008035870219</v>
+        <v>114.56698137045855</v>
       </c>
       <c r="D53">
-        <v>7.2352751398413551</v>
+        <v>5.8847236767790161</v>
       </c>
       <c r="E53">
-        <v>9.8117655066801621</v>
+        <v>8.7948964793016629</v>
       </c>
       <c r="F53">
-        <v>8.3675458041656423</v>
+        <v>7.9429517048849059</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>5.4331704855180377e-37</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>2.5626457634922309e-136</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>6.9103988346695504e-217</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1.1232966117348336e-12</v>
+        <v>4.3078842966016078e-09</v>
       </c>
       <c r="E54">
-        <v>1.7061985889159949e-21</v>
+        <v>2.0768387401811711e-18</v>
       </c>
       <c r="F54">
-        <v>2.7513453876774564e-16</v>
+        <v>2.5334600451768622e-15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.55438409830279567</v>
+        <v>0.97574778316939925</v>
       </c>
       <c r="B55">
-        <v>0.70991671490994546</v>
+        <v>0.93122260289090542</v>
       </c>
       <c r="C55">
-        <v>0.80575590306829525</v>
+        <v>0.91916167198816956</v>
       </c>
       <c r="D55">
-        <v>0.25541502613784717</v>
+        <v>0.012130875732267111</v>
       </c>
       <c r="E55">
-        <v>0.19336042351921701</v>
+        <v>0.043703342490289121</v>
       </c>
       <c r="F55">
-        <v>0.12042256973496199</v>
+        <v>0.048832001658499255</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.74458497386215283</v>
+        <v>0.98786912426773288</v>
       </c>
       <c r="B56">
-        <v>0.80663957648078299</v>
+        <v>0.95629665750971093</v>
       </c>
       <c r="C56">
-        <v>0.87957743026503787</v>
+        <v>0.95116799834150079</v>
       </c>
       <c r="D56">
-        <v>0.44561590169720433</v>
+        <v>0.024252216830600731</v>
       </c>
       <c r="E56">
-        <v>0.29008328509005454</v>
+        <v>0.068777397109094557</v>
       </c>
       <c r="F56">
-        <v>0.19424409693170466</v>
+        <v>0.080838328011830426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B57">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C57">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D57">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E57">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F57">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B58">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C58">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D58">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E58">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F58">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="59">
@@ -974,258 +974,258 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.76770114557065794</v>
+        <v>0.94687714387291178</v>
       </c>
       <c r="B61">
-        <v>0.60779715753424657</v>
+        <v>0.91712464993942111</v>
       </c>
       <c r="C61">
-        <v>0.61827999999999994</v>
+        <v>0.93409409240185115</v>
       </c>
       <c r="D61">
-        <v>0.49838437499999999</v>
+        <v>0.93166649536534918</v>
       </c>
       <c r="E61">
-        <v>0.81474666666666662</v>
+        <v>0.95154456646076413</v>
       </c>
       <c r="F61">
-        <v>0.23229885442934212</v>
+        <v>0.05312285612708828</v>
       </c>
       <c r="G61">
-        <v>0.39220284246575343</v>
+        <v>0.082875350060578779</v>
       </c>
       <c r="H61">
-        <v>0.38172</v>
+        <v>0.065905907598148988</v>
       </c>
       <c r="I61">
-        <v>0.50161562500000001</v>
+        <v>0.068333504634650807</v>
       </c>
       <c r="J61">
-        <v>0.18525333333333335</v>
+        <v>0.048455433539235877</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.019297517434692431</v>
+        <v>0.0048447184679253135</v>
       </c>
       <c r="B62">
-        <v>0.036667847966024181</v>
+        <v>0.0095343590147347404</v>
       </c>
       <c r="C62">
-        <v>0.15086535460469377</v>
+        <v>0.031495504694260885</v>
       </c>
       <c r="D62">
-        <v>0.057352938118905801</v>
+        <v>0.010637503715275783</v>
       </c>
       <c r="E62">
-        <v>0.057222751704130707</v>
+        <v>0.017956889597218421</v>
       </c>
       <c r="F62">
-        <v>0.019297517434692431</v>
+        <v>0.0048447184679253135</v>
       </c>
       <c r="G62">
-        <v>0.036667847966024181</v>
+        <v>0.0095343590147347404</v>
       </c>
       <c r="H62">
-        <v>0.15086535460469377</v>
+        <v>0.031495504694260885</v>
       </c>
       <c r="I62">
-        <v>0.057352938118905801</v>
+        <v>0.010637503715275783</v>
       </c>
       <c r="J62">
-        <v>0.057222751704130707</v>
+        <v>0.017956889597218421</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>39.782378648898664</v>
+        <v>195.4452359082899</v>
       </c>
       <c r="B63">
-        <v>16.575752089335086</v>
+        <v>96.191537210006857</v>
       </c>
       <c r="C63">
-        <v>4.0982238872539911</v>
+        <v>29.658013150431017</v>
       </c>
       <c r="D63">
-        <v>8.6897793094180251</v>
+        <v>87.583188716300739</v>
       </c>
       <c r="E63">
-        <v>14.238159515279881</v>
+        <v>52.990500459955015</v>
       </c>
       <c r="F63">
-        <v>12.037758494868516</v>
+        <v>10.965106946624587</v>
       </c>
       <c r="G63">
-        <v>10.696096559284365</v>
+        <v>8.6922833441136671</v>
       </c>
       <c r="H63">
-        <v>2.5302031801814611</v>
+        <v>2.0925496586869543</v>
       </c>
       <c r="I63">
-        <v>8.7461190560113184</v>
+        <v>6.4238289793987846</v>
       </c>
       <c r="J63">
-        <v>3.2374069372123637</v>
+        <v>2.6984313333831365</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>4.9805513495303215e-189</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>5.2000561525231054e-53</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>4.6044875258303038e-05</v>
+        <v>3.3963276807357e-175</v>
       </c>
       <c r="D64">
-        <v>2.1595183899303417e-17</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>5.177398048735185e-41</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.0503404305519268e-30</v>
+        <v>1.3618666555610717e-27</v>
       </c>
       <c r="G64">
-        <v>5.4306053167689826e-25</v>
+        <v>5.0670479676255172e-18</v>
       </c>
       <c r="H64">
-        <v>0.01159763284875499</v>
+        <v>0.036451098867013691</v>
       </c>
       <c r="I64">
-        <v>1.3730959982060432e-17</v>
+        <v>1.4815997335376546e-10</v>
       </c>
       <c r="J64">
-        <v>0.0012577905112960374</v>
+        <v>0.0069954396445234485</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.72981923920548097</v>
+        <v>0.93737884828049967</v>
       </c>
       <c r="B65">
-        <v>0.53581650054236385</v>
+        <v>0.89843209622227793</v>
       </c>
       <c r="C65">
-        <v>0.32212443199880852</v>
+        <v>0.87234569248989491</v>
       </c>
       <c r="D65">
-        <v>0.38579794314725391</v>
+        <v>0.91081117522198085</v>
       </c>
       <c r="E65">
-        <v>0.70241579668042575</v>
+        <v>0.91633925031207775</v>
       </c>
       <c r="F65">
-        <v>0.19441694806416515</v>
+        <v>0.043624560534676192</v>
       </c>
       <c r="G65">
-        <v>0.32022218547387066</v>
+        <v>0.064182796343435614</v>
       </c>
       <c r="H65">
-        <v>0.085564431998808588</v>
+        <v>0.0041575076861927046</v>
       </c>
       <c r="I65">
-        <v>0.38902919314725393</v>
+        <v>0.047478184491282507</v>
       </c>
       <c r="J65">
-        <v>0.072922463347092528</v>
+        <v>0.013250117390549487</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.8055830519358349</v>
+        <v>0.95637543946532388</v>
       </c>
       <c r="B66">
-        <v>0.67977781452612929</v>
+        <v>0.93581720365656429</v>
       </c>
       <c r="C66">
-        <v>0.9144355680011913</v>
+        <v>0.99584249231380739</v>
       </c>
       <c r="D66">
-        <v>0.61097080685274607</v>
+        <v>0.95252181550871751</v>
       </c>
       <c r="E66">
-        <v>0.92707753665290749</v>
+        <v>0.98674988260945051</v>
       </c>
       <c r="F66">
-        <v>0.27018076079451908</v>
+        <v>0.062621151719500362</v>
       </c>
       <c r="G66">
-        <v>0.46418349945763621</v>
+        <v>0.10156790377772194</v>
       </c>
       <c r="H66">
-        <v>0.67787556800119142</v>
+        <v>0.12765430751010526</v>
       </c>
       <c r="I66">
-        <v>0.61420205685274609</v>
+        <v>0.089188824778019107</v>
       </c>
       <c r="J66">
-        <v>0.29758420331957419</v>
+        <v>0.083660749687922267</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="G67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="H67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="I67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="J67">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="G68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="H68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="I68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="J68">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="69">
@@ -1262,258 +1262,258 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.43826470032555481</v>
+        <v>0.8718060448377839</v>
       </c>
       <c r="B71">
-        <v>0.64037821917808224</v>
+        <v>0.9207176778676267</v>
       </c>
       <c r="C71">
-        <v>0.63894000000000006</v>
+        <v>0.93848259814897761</v>
       </c>
       <c r="D71">
-        <v>0.71401666666666674</v>
+        <v>0.96178072168087492</v>
       </c>
       <c r="E71">
-        <v>0.51659666666666659</v>
+        <v>0.8987894979305755</v>
       </c>
       <c r="F71">
-        <v>0.56173529967444513</v>
+        <v>0.12819395516221613</v>
       </c>
       <c r="G71">
-        <v>0.35962178082191781</v>
+        <v>0.079282322132373212</v>
       </c>
       <c r="H71">
-        <v>0.36105999999999999</v>
+        <v>0.061517401851022543</v>
       </c>
       <c r="I71">
-        <v>0.28598333333333337</v>
+        <v>0.038219278319125</v>
       </c>
       <c r="J71">
-        <v>0.4834033333333333</v>
+        <v>0.10121050206942453</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.022786810570039975</v>
+        <v>0.0071276205763507305</v>
       </c>
       <c r="B72">
-        <v>0.036169582574630203</v>
+        <v>0.0094351263643281114</v>
       </c>
       <c r="C72">
-        <v>0.1502984397124601</v>
+        <v>0.031198909213386215</v>
       </c>
       <c r="D72">
-        <v>0.051647178632677156</v>
+        <v>0.008109651059548497</v>
       </c>
       <c r="E72">
-        <v>0.11153778893438031</v>
+        <v>0.027473991208462115</v>
       </c>
       <c r="F72">
-        <v>0.022786810570039975</v>
+        <v>0.0071276205763507305</v>
       </c>
       <c r="G72">
-        <v>0.036169582574630203</v>
+        <v>0.0094351263643281114</v>
       </c>
       <c r="H72">
-        <v>0.1502984397124601</v>
+        <v>0.031198909213386215</v>
       </c>
       <c r="I72">
-        <v>0.051647178632677156</v>
+        <v>0.008109651059548497</v>
       </c>
       <c r="J72">
-        <v>0.11153778893438031</v>
+        <v>0.027473991208462115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>19.233262109168706</v>
+        <v>122.31375611244164</v>
       </c>
       <c r="B73">
-        <v>17.704882765975064</v>
+        <v>97.584032509477922</v>
       </c>
       <c r="C73">
-        <v>4.2511419361529832</v>
+        <v>30.080622105413607</v>
       </c>
       <c r="D73">
-        <v>13.824891999326146</v>
+        <v>118.59705363629071</v>
       </c>
       <c r="E73">
-        <v>4.631584251419846</v>
+        <v>32.714194712770535</v>
       </c>
       <c r="F73">
-        <v>24.65177379466229</v>
+        <v>17.985518980564215</v>
       </c>
       <c r="G73">
-        <v>9.942657758902671</v>
+        <v>8.4028892747128587</v>
       </c>
       <c r="H73">
-        <v>2.4022870808955394</v>
+        <v>1.9717805334241578</v>
       </c>
       <c r="I73">
-        <v>5.5372498731690989</v>
+        <v>4.7128141566738195</v>
       </c>
       <c r="J73">
-        <v>4.3339870545374373</v>
+        <v>3.6838659989907558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1.2285520723998363e-67</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>4.0787528641985428e-59</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>2.3875587582662286e-05</v>
+        <v>1.0684666158352163e-179</v>
       </c>
       <c r="D74">
-        <v>5.3729247005291939e-39</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>4.2583558104673642e-06</v>
+        <v>1.2376643215758069e-208</v>
       </c>
       <c r="F74">
-        <v>2.1274998171247581e-99</v>
+        <v>1.1722222196138241e-69</v>
       </c>
       <c r="G74">
-        <v>5.3533229542776308e-22</v>
+        <v>5.9452780486707829e-17</v>
       </c>
       <c r="H74">
-        <v>0.01652843234050709</v>
+        <v>0.048702216904751683</v>
       </c>
       <c r="I74">
-        <v>4.2153885852842608e-08</v>
+        <v>2.5247461857336888e-06</v>
       </c>
       <c r="J74">
-        <v>1.6582826120499447e-05</v>
+        <v>0.00023270595357138005</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.39353315248285492</v>
+        <v>0.8578320136215325</v>
       </c>
       <c r="B75">
-        <v>0.56937567986199245</v>
+        <v>0.9022196743709392</v>
       </c>
       <c r="C75">
-        <v>0.34389731177400773</v>
+        <v>0.87731568745406707</v>
       </c>
       <c r="D75">
-        <v>0.61263090077165439</v>
+        <v>0.94588137408722706</v>
       </c>
       <c r="E75">
-        <v>0.29764290274908467</v>
+        <v>0.84492546200589247</v>
       </c>
       <c r="F75">
-        <v>0.5170037518317453</v>
+        <v>0.11421992394596475</v>
       </c>
       <c r="G75">
-        <v>0.28861924150582796</v>
+        <v>0.060784318635685744</v>
       </c>
       <c r="H75">
-        <v>0.066017311774007659</v>
+        <v>0.00035049115611206216</v>
       </c>
       <c r="I75">
-        <v>0.18459756743832106</v>
+        <v>0.022319930725477173</v>
       </c>
       <c r="J75">
-        <v>0.26444956941575137</v>
+        <v>0.047346466144741549</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.4829962481682547</v>
+        <v>0.8857800760540353</v>
       </c>
       <c r="B76">
-        <v>0.71138075849417204</v>
+        <v>0.93921568136431421</v>
       </c>
       <c r="C76">
-        <v>0.9339826882259924</v>
+        <v>0.99964950884388815</v>
       </c>
       <c r="D76">
-        <v>0.8154024325616791</v>
+        <v>0.97768006927452278</v>
       </c>
       <c r="E76">
-        <v>0.73555043058424852</v>
+        <v>0.95265353385525853</v>
       </c>
       <c r="F76">
-        <v>0.60646684751714497</v>
+        <v>0.1421679863784675</v>
       </c>
       <c r="G76">
-        <v>0.43062432013800767</v>
+        <v>0.09778032562906068</v>
       </c>
       <c r="H76">
-        <v>0.65610268822599238</v>
+        <v>0.12268431254593302</v>
       </c>
       <c r="I76">
-        <v>0.38736909922834567</v>
+        <v>0.054118625912772826</v>
       </c>
       <c r="J76">
-        <v>0.70235709725091522</v>
+        <v>0.1550745379941075</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="G77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="H77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="I77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="J77">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="G78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="H78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="I78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="J78">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="79">
@@ -1550,258 +1550,258 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.79403415410378719</v>
+        <v>0.95159964584793466</v>
       </c>
       <c r="B81">
-        <v>0.75182462328767119</v>
+        <v>0.94682048195600166</v>
       </c>
       <c r="C81">
-        <v>0.74278</v>
+        <v>0.96420155993431855</v>
       </c>
       <c r="D81">
-        <v>0.78759895833333327</v>
+        <v>0.97266981193668989</v>
       </c>
       <c r="E81">
-        <v>0.66865666666666668</v>
+        <v>0.94297773860776601</v>
       </c>
       <c r="F81">
-        <v>0.20596584589621281</v>
+        <v>0.048400354152065256</v>
       </c>
       <c r="G81">
-        <v>0.24817537671232875</v>
+        <v>0.0531795180439983</v>
       </c>
       <c r="H81">
-        <v>0.25722</v>
+        <v>0.035798440065681447</v>
       </c>
       <c r="I81">
-        <v>0.21240104166666668</v>
+        <v>0.027330188063309974</v>
       </c>
       <c r="J81">
-        <v>0.33134333333333332</v>
+        <v>0.057022261392233944</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.018585359215829857</v>
+        <v>0.0048613968038408277</v>
       </c>
       <c r="B82">
-        <v>0.032926249758920965</v>
+        <v>0.0078845673712006313</v>
       </c>
       <c r="C82">
-        <v>0.11029689578587423</v>
+        <v>0.019407066721201446</v>
       </c>
       <c r="D82">
-        <v>0.046757102997389811</v>
+        <v>0.0069524205876069882</v>
       </c>
       <c r="E82">
-        <v>0.10466168470273547</v>
+        <v>0.021566713193756096</v>
       </c>
       <c r="F82">
-        <v>0.018585359215829857</v>
+        <v>0.0048613968038408277</v>
       </c>
       <c r="G82">
-        <v>0.032926249758920965</v>
+        <v>0.0078845673712006313</v>
       </c>
       <c r="H82">
-        <v>0.11029689578587423</v>
+        <v>0.019407066721201446</v>
       </c>
       <c r="I82">
-        <v>0.046757102997389811</v>
+        <v>0.0069524205876069882</v>
       </c>
       <c r="J82">
-        <v>0.10466168470273547</v>
+        <v>0.021566713193756096</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>42.723637723799179</v>
+        <v>195.74613722050162</v>
       </c>
       <c r="B83">
-        <v>22.83359413210955</v>
+        <v>120.08528019107071</v>
       </c>
       <c r="C83">
-        <v>6.7343690382909953</v>
+        <v>49.683013604573574</v>
       </c>
       <c r="D83">
-        <v>16.844477263214973</v>
+        <v>139.90376440552501</v>
       </c>
       <c r="E83">
-        <v>6.3887435843003439</v>
+        <v>43.723757539501797</v>
       </c>
       <c r="F83">
-        <v>11.082155771344137</v>
+        <v>9.9560591544030608</v>
       </c>
       <c r="G83">
-        <v>7.5373107635827452</v>
+        <v>6.744760433938727</v>
       </c>
       <c r="H83">
-        <v>2.3320692587700393</v>
+        <v>1.8446084913271865</v>
       </c>
       <c r="I83">
-        <v>4.5426475989867008</v>
+        <v>3.9310320368171197</v>
       </c>
       <c r="J83">
-        <v>3.1658513263419046</v>
+        <v>2.643994051385762</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.8144702956972353e-205</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>1.4921336731949072e-88</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>3.2180417061712321e-11</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>1.9022682743578695e-54</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>2.891322237562091e-10</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.3786294899776472e-26</v>
+        <v>4.3465060626766589e-23</v>
       </c>
       <c r="G84">
-        <v>1.3479605133873374e-13</v>
+        <v>1.7483130860696825e-11</v>
       </c>
       <c r="H84">
-        <v>0.019953659192466212</v>
+        <v>0.065167059107050201</v>
       </c>
       <c r="I84">
-        <v>6.4454230480245588e-06</v>
+        <v>8.598657510643696e-05</v>
       </c>
       <c r="J84">
-        <v>0.001607113073568401</v>
+        <v>0.0082248183391240848</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.75755024678462446</v>
+        <v>0.94206865160325537</v>
       </c>
       <c r="B85">
-        <v>0.68718889413001771</v>
+        <v>0.93136242138844472</v>
       </c>
       <c r="C85">
-        <v>0.52626216589670538</v>
+        <v>0.9261531041736738</v>
       </c>
       <c r="D85">
-        <v>0.6958126338152496</v>
+        <v>0.95903926843636933</v>
       </c>
       <c r="E85">
-        <v>0.46320100879002474</v>
+        <v>0.90069519562260214</v>
       </c>
       <c r="F85">
-        <v>0.16948193857705007</v>
+        <v>0.038869359907385985</v>
       </c>
       <c r="G85">
-        <v>0.18353964755467533</v>
+        <v>0.037721457476441365</v>
       </c>
       <c r="H85">
-        <v>0.040702165896705389</v>
+        <v>-0.002250015694963331</v>
       </c>
       <c r="I85">
-        <v>0.12061471714858302</v>
+        <v>0.013699644562989381</v>
       </c>
       <c r="J85">
-        <v>0.12588767545669138</v>
+        <v>0.014739718407070106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.83051806142294993</v>
+        <v>0.96113064009261395</v>
       </c>
       <c r="B86">
-        <v>0.81646035244532467</v>
+        <v>0.9622785425235586</v>
       </c>
       <c r="C86">
-        <v>0.95929783410329461</v>
+        <v>1.0022500156949634</v>
       </c>
       <c r="D86">
-        <v>0.87938528285141693</v>
+        <v>0.98630035543701045</v>
       </c>
       <c r="E86">
-        <v>0.87411232454330867</v>
+        <v>0.98526028159292989</v>
       </c>
       <c r="F86">
-        <v>0.24244975321537554</v>
+        <v>0.057931348396744527</v>
       </c>
       <c r="G86">
-        <v>0.31281110586998218</v>
+        <v>0.068637578611555228</v>
       </c>
       <c r="H86">
-        <v>0.47373783410329462</v>
+        <v>0.073846895826326225</v>
       </c>
       <c r="I86">
-        <v>0.30418736618475034</v>
+        <v>0.040960731563630566</v>
       </c>
       <c r="J86">
-        <v>0.53679899120997532</v>
+        <v>0.099304804377397776</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="G87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="H87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="I87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="J87">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="G88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="H88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="I88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="J88">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="89">
@@ -1838,162 +1838,162 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.59267777091760698</v>
+        <v>0.92311602151040439</v>
       </c>
       <c r="B91">
-        <v>0.6976481393017222</v>
+        <v>0.9361045854099308</v>
       </c>
       <c r="C91">
-        <v>0.82711223245614041</v>
+        <v>0.96096850488033425</v>
       </c>
       <c r="D91">
-        <v>0.40732222908239296</v>
+        <v>0.076883978489595522</v>
       </c>
       <c r="E91">
-        <v>0.30235186069827791</v>
+        <v>0.063895414590069102</v>
       </c>
       <c r="F91">
-        <v>0.17288776754385965</v>
+        <v>0.03903149511966586</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.034449261536121566</v>
+        <v>0.0080972575505583906</v>
       </c>
       <c r="B92">
-        <v>0.023037651587145824</v>
+        <v>0.005556126120445112</v>
       </c>
       <c r="C92">
-        <v>0.030390597881196243</v>
+        <v>0.0073648891328102779</v>
       </c>
       <c r="D92">
-        <v>0.034449261536121566</v>
+        <v>0.0080972575505583906</v>
       </c>
       <c r="E92">
-        <v>0.023037651587145824</v>
+        <v>0.005556126120445112</v>
       </c>
       <c r="F92">
-        <v>0.030390597881196243</v>
+        <v>0.0073648891328102779</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>17.204367945482904</v>
+        <v>114.00353956219978</v>
       </c>
       <c r="B93">
-        <v>30.282953827246203</v>
+        <v>168.48152203840499</v>
       </c>
       <c r="C93">
-        <v>27.216056613611556</v>
+        <v>130.47969732487337</v>
       </c>
       <c r="D93">
-        <v>11.823830495039719</v>
+        <v>9.4950639780864527</v>
       </c>
       <c r="E93">
-        <v>13.12424834426176</v>
+        <v>11.499993557552706</v>
       </c>
       <c r="F93">
-        <v>5.688857067561397</v>
+        <v>5.2996717826724851</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2.1816576258333186e-56</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>2.4637433162091599e-133</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>7.6955095375678594e-115</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>9.1939212805839888e-30</v>
+        <v>3.637273911081383e-21</v>
       </c>
       <c r="E94">
-        <v>1.1656089234511194e-35</v>
+        <v>3.8327229565599125e-30</v>
       </c>
       <c r="F94">
-        <v>1.8161442605712203e-08</v>
+        <v>1.221511664893909e-07</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.52505230021769411</v>
+        <v>0.90724097196680731</v>
       </c>
       <c r="B95">
-        <v>0.65242417910832962</v>
+        <v>0.92521154207003387</v>
       </c>
       <c r="C95">
-        <v>0.7674541035173611</v>
+        <v>0.9465292976380747</v>
       </c>
       <c r="D95">
-        <v>0.33969675838248015</v>
+        <v>0.061008928945998409</v>
       </c>
       <c r="E95">
-        <v>0.25712790050488538</v>
+        <v>0.053002371250172174</v>
       </c>
       <c r="F95">
-        <v>0.11322963860508038</v>
+        <v>0.024592287877406357</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.66030324161751985</v>
+        <v>0.93899107105400148</v>
       </c>
       <c r="B96">
-        <v>0.74287209949511479</v>
+        <v>0.94699762874982774</v>
       </c>
       <c r="C96">
-        <v>0.88677036139491972</v>
+        <v>0.97540771212259381</v>
       </c>
       <c r="D96">
-        <v>0.47494769978230578</v>
+        <v>0.092759028033192636</v>
       </c>
       <c r="E96">
-        <v>0.34757582089167044</v>
+        <v>0.074788457929966023</v>
       </c>
       <c r="F96">
-        <v>0.2325458964826389</v>
+        <v>0.05347070236192536</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B97">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C97">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D97">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E97">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F97">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B98">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C98">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D98">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E98">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F98">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="99">
@@ -2018,162 +2018,162 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.68491450500319351</v>
+        <v>0.94025608791208781</v>
       </c>
       <c r="B101">
-        <v>0.49664266631280968</v>
+        <v>0.89274295119072666</v>
       </c>
       <c r="C101">
-        <v>0.33938330811403505</v>
+        <v>0.85107954617498049</v>
       </c>
       <c r="D101">
-        <v>0.31508549499680649</v>
+        <v>0.059743912087912091</v>
       </c>
       <c r="E101">
-        <v>0.50335733368719038</v>
+        <v>0.10725704880927325</v>
       </c>
       <c r="F101">
-        <v>0.66061669188596484</v>
+        <v>0.14892045382501945</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.031913282633820955</v>
+        <v>0.0069605888471964104</v>
       </c>
       <c r="B102">
-        <v>0.024780558952300556</v>
+        <v>0.0068692013623587395</v>
       </c>
       <c r="C102">
-        <v>0.03726054500118476</v>
+        <v>0.012803796829215097</v>
       </c>
       <c r="D102">
-        <v>0.031913282633820955</v>
+        <v>0.0069605888471964104</v>
       </c>
       <c r="E102">
-        <v>0.024780558952300556</v>
+        <v>0.0068692013623587395</v>
       </c>
       <c r="F102">
-        <v>0.03726054500118476</v>
+        <v>0.012803796829215097</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>21.461737824404722</v>
+        <v>135.08283689113523</v>
       </c>
       <c r="B103">
-        <v>20.041624858776757</v>
+        <v>129.96313604703786</v>
       </c>
       <c r="C103">
-        <v>9.1083828243318443</v>
+        <v>66.470872470658662</v>
       </c>
       <c r="D103">
-        <v>9.8731772162756517</v>
+        <v>8.5831692403403164</v>
       </c>
       <c r="E103">
-        <v>20.312589988631395</v>
+        <v>15.614194889818084</v>
       </c>
       <c r="F103">
-        <v>17.729657251791661</v>
+        <v>11.630960394905658</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.7918756931238551e-80</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>3.0365346382807185e-72</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>7.0671862747464782e-19</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>9.9190640807888542e-22</v>
+        <v>1.2940898042021787e-17</v>
       </c>
       <c r="E104">
-        <v>8.4080863429265633e-74</v>
+        <v>2.0030420882275796e-53</v>
       </c>
       <c r="F104">
-        <v>2.9828207979634076e-59</v>
+        <v>8.7479356953406766e-31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.62226727648630409</v>
+        <v>0.92660953015942837</v>
       </c>
       <c r="B105">
-        <v>0.44799729951447881</v>
+        <v>0.87927556284701891</v>
       </c>
       <c r="C105">
-        <v>0.26623915982515745</v>
+        <v>0.82597710775792355</v>
       </c>
       <c r="D105">
-        <v>0.25243826647991707</v>
+        <v>0.04609735433525268</v>
       </c>
       <c r="E105">
-        <v>0.45471196688885951</v>
+        <v>0.093789660465565486</v>
       </c>
       <c r="F105">
-        <v>0.58747254359708723</v>
+        <v>0.12381801540796251</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.74756173352008293</v>
+        <v>0.95390264566474725</v>
       </c>
       <c r="B106">
-        <v>0.54528803311114049</v>
+        <v>0.90621033953443442</v>
       </c>
       <c r="C106">
-        <v>0.41252745640291266</v>
+        <v>0.87618198459203744</v>
       </c>
       <c r="D106">
-        <v>0.37773272351369591</v>
+        <v>0.073390469840571501</v>
       </c>
       <c r="E106">
-        <v>0.55200270048552125</v>
+        <v>0.12072443715298102</v>
       </c>
       <c r="F106">
-        <v>0.73376084017484244</v>
+        <v>0.1740228922420764</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B107">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C107">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D107">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E107">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F107">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B108">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C108">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D108">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E108">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F108">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="109">
@@ -2198,162 +2198,162 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.72240772407919951</v>
+        <v>0.94772735281739551</v>
       </c>
       <c r="B111">
-        <v>0.80570919438546829</v>
+        <v>0.95947823387103848</v>
       </c>
       <c r="C111">
-        <v>0.83350445942982465</v>
+        <v>0.96420118615782879</v>
       </c>
       <c r="D111">
-        <v>0.27759227592080049</v>
+        <v>0.052272647182604624</v>
       </c>
       <c r="E111">
-        <v>0.19429080561453174</v>
+        <v>0.040521766128961544</v>
       </c>
       <c r="F111">
-        <v>0.16649554057017546</v>
+        <v>0.035798813842171297</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.031301125744232619</v>
+        <v>0.006736430902478577</v>
       </c>
       <c r="B112">
-        <v>0.01953609606662135</v>
+        <v>0.0044950951485102728</v>
       </c>
       <c r="C112">
-        <v>0.028126729166767738</v>
+        <v>0.0067271515915205589</v>
       </c>
       <c r="D112">
-        <v>0.031301125744232619</v>
+        <v>0.006736430902478577</v>
       </c>
       <c r="E112">
-        <v>0.01953609606662135</v>
+        <v>0.0044950951485102728</v>
       </c>
       <c r="F112">
-        <v>0.028126729166767738</v>
+        <v>0.0067271515915205589</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>23.079288904243533</v>
+        <v>140.68686616657678</v>
       </c>
       <c r="B113">
-        <v>41.242077825470624</v>
+        <v>213.45003880263152</v>
       </c>
       <c r="C113">
-        <v>29.63389217736081</v>
+        <v>143.32978423931834</v>
       </c>
       <c r="D113">
-        <v>8.8684438441306916</v>
+        <v>7.7596947017405942</v>
       </c>
       <c r="E113">
-        <v>9.945221652881294</v>
+        <v>9.0146626022790493</v>
       </c>
       <c r="F113">
-        <v>5.9194775042272987</v>
+        <v>5.3215411240761981</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>5.2006664785442281e-90</v>
+        <v>0</v>
       </c>
       <c r="B114">
-        <v>3.0467334547151689e-197</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>1.9866818885245594e-129</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>5.0962499562718e-18</v>
+        <v>1.0689255154401075e-14</v>
       </c>
       <c r="E114">
-        <v>5.2325398535740826e-22</v>
+        <v>2.974892634887241e-19</v>
       </c>
       <c r="F114">
-        <v>4.858796558472655e-09</v>
+        <v>1.0842720749121587e-07</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.66096218744058732</v>
+        <v>0.93452026712743974</v>
       </c>
       <c r="B115">
-        <v>0.76735894729065857</v>
+        <v>0.95066539103626135</v>
       </c>
       <c r="C115">
-        <v>0.77829040797164706</v>
+        <v>0.95101229298802803</v>
       </c>
       <c r="D115">
-        <v>0.21614673928218833</v>
+        <v>0.039065561492648851</v>
       </c>
       <c r="E115">
-        <v>0.15594055851972208</v>
+        <v>0.031708923294184399</v>
       </c>
       <c r="F115">
-        <v>0.11128148911199784</v>
+        <v>0.022609920672370554</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.7838532607178117</v>
+        <v>0.96093443850735127</v>
       </c>
       <c r="B116">
-        <v>0.84405944148027801</v>
+        <v>0.9682910767058156</v>
       </c>
       <c r="C116">
-        <v>0.88871851088800224</v>
+        <v>0.97739007932762956</v>
       </c>
       <c r="D116">
-        <v>0.33903781255941268</v>
+        <v>0.065479732872560398</v>
       </c>
       <c r="E116">
-        <v>0.23264105270934141</v>
+        <v>0.049334608963738688</v>
       </c>
       <c r="F116">
-        <v>0.22170959202835308</v>
+        <v>0.04898770701197204</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B117">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C117">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D117">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E117">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F117">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B118">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C118">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D118">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E118">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F118">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="119">
@@ -2378,306 +2378,306 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.65780216666666669</v>
+        <v>0.96146297161408412</v>
       </c>
       <c r="B121">
-        <v>0.65478168641306422</v>
+        <v>0.94189076480818912</v>
       </c>
       <c r="C121">
-        <v>0.71778344253903348</v>
+        <v>0.95229866232802307</v>
       </c>
       <c r="D121">
-        <v>0.71270241230660969</v>
+        <v>0.9349002286095015</v>
       </c>
       <c r="E121">
-        <v>0.64804965002229353</v>
+        <v>0.89115205073494896</v>
       </c>
       <c r="F121">
-        <v>0.71519606448750106</v>
+        <v>0.88598857300131384</v>
       </c>
       <c r="G121">
-        <v>0.34219783333333337</v>
+        <v>0.038537028385915773</v>
       </c>
       <c r="H121">
-        <v>0.34521831358693594</v>
+        <v>0.058109235191810917</v>
       </c>
       <c r="I121">
-        <v>0.28221655746096658</v>
+        <v>0.047701337671976915</v>
       </c>
       <c r="J121">
-        <v>0.28729758769339031</v>
+        <v>0.065099771390498412</v>
       </c>
       <c r="K121">
-        <v>0.35195034997770636</v>
+        <v>0.10884794926505111</v>
       </c>
       <c r="L121">
-        <v>0.284803935512499</v>
+        <v>0.11401142699868613</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.18093534413356896</v>
+        <v>0.026266066261856878</v>
       </c>
       <c r="B122">
-        <v>0.037519838541423392</v>
+        <v>0.007594147131533978</v>
       </c>
       <c r="C122">
-        <v>0.030505996188958662</v>
+        <v>0.0059835725817037524</v>
       </c>
       <c r="D122">
-        <v>0.035645177230595626</v>
+        <v>0.009133552726661576</v>
       </c>
       <c r="E122">
-        <v>0.048503238477173659</v>
+        <v>0.017329196421865013</v>
       </c>
       <c r="F122">
-        <v>0.055630017621109341</v>
+        <v>0.023621461587684182</v>
       </c>
       <c r="G122">
-        <v>0.18093534413356896</v>
+        <v>0.026266066261856881</v>
       </c>
       <c r="H122">
-        <v>0.037519838541423385</v>
+        <v>0.0075941471315339798</v>
       </c>
       <c r="I122">
-        <v>0.030505996188958662</v>
+        <v>0.0059835725817037602</v>
       </c>
       <c r="J122">
-        <v>0.035645177230595633</v>
+        <v>0.0091335527266615778</v>
       </c>
       <c r="K122">
-        <v>0.048503238477173659</v>
+        <v>0.01732919642186501</v>
       </c>
       <c r="L122">
-        <v>0.055630017621109341</v>
+        <v>0.023621461587684182</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>3.6355647914819125</v>
+        <v>36.604756952521051</v>
       </c>
       <c r="B123">
-        <v>17.451612583304676</v>
+        <v>124.02851149631758</v>
       </c>
       <c r="C123">
-        <v>23.529257595555197</v>
+        <v>159.15218697938266</v>
       </c>
       <c r="D123">
-        <v>19.994357376763716</v>
+        <v>102.3588801190639</v>
       </c>
       <c r="E123">
-        <v>13.360956306603637</v>
+        <v>51.424891786127084</v>
       </c>
       <c r="F123">
-        <v>12.856297644171752</v>
+        <v>37.507779512816128</v>
       </c>
       <c r="G123">
-        <v>1.8912713542618751</v>
+        <v>1.4671792875920124</v>
       </c>
       <c r="H123">
-        <v>9.2009541353916351</v>
+        <v>7.6518447938041385</v>
       </c>
       <c r="I123">
-        <v>9.2511831350425471</v>
+        <v>7.9720496443605358</v>
       </c>
       <c r="J123">
-        <v>8.0599287200847947</v>
+        <v>7.1275409841853676</v>
       </c>
       <c r="K123">
-        <v>7.2562237291297444</v>
+        <v>6.2811884991800806</v>
       </c>
       <c r="L123">
-        <v>5.1196089394087743</v>
+        <v>4.826603407899607</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.00029929443104532126</v>
+        <v>3.113091348519037e-185</v>
       </c>
       <c r="B124">
-        <v>1.0551090693502672e-56</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>4.1922400655322415e-91</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>3.0846541786798586e-69</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>1.0643636986256458e-35</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>6.2787332321696512e-34</v>
+        <v>5.7735793108972156e-238</v>
       </c>
       <c r="G124">
-        <v>0.059032159128061062</v>
+        <v>0.14264996886979162</v>
       </c>
       <c r="H124">
-        <v>4.2203680695885205e-19</v>
+        <v>4.1776392518524558e-14</v>
       </c>
       <c r="I124">
-        <v>2.5199796639300569e-19</v>
+        <v>4.5132854234852905e-15</v>
       </c>
       <c r="J124">
-        <v>3.8456130897871535e-15</v>
+        <v>1.6899439863912291e-12</v>
       </c>
       <c r="K124">
-        <v>1.279806476383139e-12</v>
+        <v>3.9983371657354403e-10</v>
       </c>
       <c r="L124">
-        <v>4.0181173515379134e-07</v>
+        <v>1.4851775595862573e-06</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.30251434845525293</v>
+        <v>0.90991840166298321</v>
       </c>
       <c r="B125">
-        <v>0.58111399622138382</v>
+        <v>0.92699081657139182</v>
       </c>
       <c r="C125">
-        <v>0.65789142494964004</v>
+        <v>0.94055593597830889</v>
       </c>
       <c r="D125">
-        <v>0.64270463275430867</v>
+        <v>0.91698209822107657</v>
       </c>
       <c r="E125">
-        <v>0.55278669255025947</v>
+        <v>0.857169746204414</v>
       </c>
       <c r="F125">
-        <v>0.60596357567207204</v>
+        <v>0.8396656178313765</v>
       </c>
       <c r="G125">
-        <v>-0.013089984878080385</v>
+        <v>-0.013007541565185118</v>
       </c>
       <c r="H125">
-        <v>0.27155062339525571</v>
+        <v>0.043209286955013651</v>
       </c>
       <c r="I125">
-        <v>0.22232453987157316</v>
+        <v>0.03595861132226276</v>
       </c>
       <c r="J125">
-        <v>0.21729980814108929</v>
+        <v>0.047181641002073504</v>
       </c>
       <c r="K125">
-        <v>0.25668739250567224</v>
+        <v>0.074865644734516179</v>
       </c>
       <c r="L125">
-        <v>0.17557144669707003</v>
+        <v>0.067688471828748764</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.0130899848780803</v>
+        <v>1.0130075415651849</v>
       </c>
       <c r="B126">
-        <v>0.72844937660474463</v>
+        <v>0.95679071304498642</v>
       </c>
       <c r="C126">
-        <v>0.77767546012842692</v>
+        <v>0.96404138867773725</v>
       </c>
       <c r="D126">
-        <v>0.78270019185891071</v>
+        <v>0.95281835899792644</v>
       </c>
       <c r="E126">
-        <v>0.74331260749432759</v>
+        <v>0.92513435526548393</v>
       </c>
       <c r="F126">
-        <v>0.82442855330293008</v>
+        <v>0.93231152817125118</v>
       </c>
       <c r="G126">
-        <v>0.69748565154474718</v>
+        <v>0.090081598337016663</v>
       </c>
       <c r="H126">
-        <v>0.41888600377861618</v>
+        <v>0.073009183428608182</v>
       </c>
       <c r="I126">
-        <v>0.34210857505035996</v>
+        <v>0.05944406402169107</v>
       </c>
       <c r="J126">
-        <v>0.35729536724569133</v>
+        <v>0.08301790177892332</v>
       </c>
       <c r="K126">
-        <v>0.44721330744974047</v>
+        <v>0.14283025379558603</v>
       </c>
       <c r="L126">
-        <v>0.39403642432792796</v>
+        <v>0.1603343821686235</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>650.49128962911846</v>
+        <v>974.3905253080178</v>
       </c>
       <c r="B127">
-        <v>685.02948241039462</v>
+        <v>1149.1508106652443</v>
       </c>
       <c r="C127">
-        <v>715.13783712721295</v>
+        <v>938.774687862012</v>
       </c>
       <c r="D127">
-        <v>629.81376287364913</v>
+        <v>1298.941868681424</v>
       </c>
       <c r="E127">
-        <v>581.26896906056515</v>
+        <v>2323.2828102352814</v>
       </c>
       <c r="F127">
-        <v>662.16759998729071</v>
+        <v>2178.1092284100823</v>
       </c>
       <c r="G127">
-        <v>650.49128962911846</v>
+        <v>974.39052530801121</v>
       </c>
       <c r="H127">
-        <v>685.02948241039564</v>
+        <v>1149.1508106652345</v>
       </c>
       <c r="I127">
-        <v>715.13783712721317</v>
+        <v>938.77468786196607</v>
       </c>
       <c r="J127">
-        <v>629.81376287364799</v>
+        <v>1298.9418686814145</v>
       </c>
       <c r="K127">
-        <v>581.26896906056561</v>
+        <v>2323.2828102353051</v>
       </c>
       <c r="L127">
-        <v>662.16759998729071</v>
+        <v>2178.1092284100805</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9636175558332891</v>
+        <v>1.9624015807023607</v>
       </c>
       <c r="B128">
-        <v>1.9634330278460099</v>
+        <v>1.9620304925258341</v>
       </c>
       <c r="C128">
-        <v>1.9632867328250283</v>
+        <v>1.9624941770774911</v>
       </c>
       <c r="D128">
-        <v>1.9637377337043855</v>
+        <v>1.9617919690900167</v>
       </c>
       <c r="E128">
-        <v>1.9640535449373397</v>
+        <v>1.9609855935188056</v>
       </c>
       <c r="F128">
-        <v>1.9635530148381555</v>
+        <v>1.9610537221832773</v>
       </c>
       <c r="G128">
-        <v>1.9636175558332891</v>
+        <v>1.9624015807023607</v>
       </c>
       <c r="H128">
-        <v>1.9634330278460064</v>
+        <v>1.9620304925258341</v>
       </c>
       <c r="I128">
-        <v>1.9632867328250283</v>
+        <v>1.9624941770774911</v>
       </c>
       <c r="J128">
-        <v>1.9637377337043855</v>
+        <v>1.9617919690900167</v>
       </c>
       <c r="K128">
-        <v>1.9640535449373397</v>
+        <v>1.9609855935188056</v>
       </c>
       <c r="L128">
-        <v>1.9635530148381555</v>
+        <v>1.9610537221832773</v>
       </c>
     </row>
     <row r="129">
@@ -2720,306 +2720,306 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.48501988888888886</v>
+        <v>0.92953997169365843</v>
       </c>
       <c r="B131">
-        <v>0.55967161052489367</v>
+        <v>0.92461679149707676</v>
       </c>
       <c r="C131">
-        <v>0.4918618997981099</v>
+        <v>0.91233059591260379</v>
       </c>
       <c r="D131">
-        <v>0.50870730879754167</v>
+        <v>0.88727428512071094</v>
       </c>
       <c r="E131">
-        <v>0.59266285645198624</v>
+        <v>0.87345403846736569</v>
       </c>
       <c r="F131">
-        <v>0.4660847481151979</v>
+        <v>0.7800860680033378</v>
       </c>
       <c r="G131">
-        <v>0.51498011111111108</v>
+        <v>0.070460028306341488</v>
       </c>
       <c r="H131">
-        <v>0.44032838947510633</v>
+        <v>0.07538320850292328</v>
       </c>
       <c r="I131">
-        <v>0.5081381002018901</v>
+        <v>0.087669404087396333</v>
       </c>
       <c r="J131">
-        <v>0.49129269120245833</v>
+        <v>0.11272571487928904</v>
       </c>
       <c r="K131">
-        <v>0.40733714354801387</v>
+        <v>0.12654596153263425</v>
       </c>
       <c r="L131">
-        <v>0.53391525188480204</v>
+        <v>0.21991393199666218</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.19061246485495903</v>
+        <v>0.03158446367037912</v>
       </c>
       <c r="B132">
-        <v>0.038334622401558917</v>
+        <v>0.0080512574101365923</v>
       </c>
       <c r="C132">
-        <v>0.033539175836426169</v>
+        <v>0.0074695320123923537</v>
       </c>
       <c r="D132">
-        <v>0.039004642355069001</v>
+        <v>0.011339455908774177</v>
       </c>
       <c r="E132">
-        <v>0.051234693085209289</v>
+        <v>0.018678078004769595</v>
       </c>
       <c r="F132">
-        <v>0.061118768278565799</v>
+        <v>0.028908163319265559</v>
       </c>
       <c r="G132">
-        <v>0.19061246485495903</v>
+        <v>0.031584463670379127</v>
       </c>
       <c r="H132">
-        <v>0.038334622401558924</v>
+        <v>0.0080512574101365888</v>
       </c>
       <c r="I132">
-        <v>0.033539175836426169</v>
+        <v>0.0074695320123923581</v>
       </c>
       <c r="J132">
-        <v>0.039004642355069001</v>
+        <v>0.011339455908774167</v>
       </c>
       <c r="K132">
-        <v>0.051234693085209282</v>
+        <v>0.018678078004769585</v>
       </c>
       <c r="L132">
-        <v>0.061118768278565799</v>
+        <v>0.028908163319265559</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2.5445339540514862</v>
+        <v>29.430291468441478</v>
       </c>
       <c r="B133">
-        <v>14.599638015532769</v>
+        <v>114.84129054586894</v>
       </c>
       <c r="C133">
-        <v>14.665294764456</v>
+        <v>122.14026185295123</v>
       </c>
       <c r="D133">
-        <v>13.042224670762316</v>
+        <v>78.246636545776511</v>
       </c>
       <c r="E133">
-        <v>11.567608211613926</v>
+        <v>46.763593033733038</v>
       </c>
       <c r="F133">
-        <v>7.625885816135674</v>
+        <v>26.984975122354356</v>
       </c>
       <c r="G133">
-        <v>2.7017126687017563</v>
+        <v>2.2308445393176344</v>
       </c>
       <c r="H133">
-        <v>11.48644128700743</v>
+        <v>9.3629112401766328</v>
       </c>
       <c r="I133">
-        <v>15.150583982150581</v>
+        <v>11.736933979524828</v>
       </c>
       <c r="J133">
-        <v>12.595749160576791</v>
+        <v>9.941016199204487</v>
       </c>
       <c r="K133">
-        <v>7.9504163881798728</v>
+        <v>6.7751061699346051</v>
       </c>
       <c r="L133">
-        <v>8.7357004554040536</v>
+        <v>7.6073297901324199</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.011166154798621888</v>
+        <v>3.0629057233692501e-164</v>
       </c>
       <c r="B134">
-        <v>6.5721945987776186e-42</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>4.9434889050710022e-43</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>7.2555378558626281e-35</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>2.6642894211657257e-26</v>
+        <v>2.275916514218282e-246</v>
       </c>
       <c r="F134">
-        <v>1.0395779383144332e-13</v>
+        <v>9.683531195875233e-145</v>
       </c>
       <c r="G134">
-        <v>0.0070733007901574657</v>
+        <v>0.025777721597814739</v>
       </c>
       <c r="H134">
-        <v>6.5632301242838557e-28</v>
+        <v>1.6662775965047518e-20</v>
       </c>
       <c r="I134">
-        <v>1.8023835980143281e-45</v>
+        <v>2.6596544067536917e-31</v>
       </c>
       <c r="J134">
-        <v>7.4992535340632815e-33</v>
+        <v>9.3870794006889476e-23</v>
       </c>
       <c r="K134">
-        <v>2.8083720136803713e-14</v>
+        <v>2.2043789492673622e-11</v>
       </c>
       <c r="L134">
-        <v>2.7770604151671254e-17</v>
+        <v>3.6517998970058518e-14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.11074860454318664</v>
+        <v>0.86760628671474205</v>
       </c>
       <c r="B135">
-        <v>0.48439557348782125</v>
+        <v>0.90882900949794609</v>
       </c>
       <c r="C135">
-        <v>0.42602078670220817</v>
+        <v>0.89768616954464531</v>
       </c>
       <c r="D135">
-        <v>0.4321235010648149</v>
+        <v>0.86503569270845893</v>
       </c>
       <c r="E135">
-        <v>0.49188407326396227</v>
+        <v>0.83679792842713263</v>
       </c>
       <c r="F135">
-        <v>0.34603577436689748</v>
+        <v>0.72340576569346027</v>
       </c>
       <c r="G135">
-        <v>0.14070882676540886</v>
+        <v>0.0085263433274251343</v>
       </c>
       <c r="H135">
-        <v>0.36505235243803391</v>
+        <v>0.059595426503792646</v>
       </c>
       <c r="I135">
-        <v>0.44229698710598836</v>
+        <v>0.073024977719437834</v>
       </c>
       <c r="J135">
-        <v>0.41470888346973145</v>
+        <v>0.090487122467037079</v>
       </c>
       <c r="K135">
-        <v>0.3065583603599899</v>
+        <v>0.089889851492401224</v>
       </c>
       <c r="L135">
-        <v>0.41386627813650162</v>
+        <v>0.16323362968678462</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.85929117323459114</v>
+        <v>0.99147365667257481</v>
       </c>
       <c r="B136">
-        <v>0.63494764756196609</v>
+        <v>0.94040457349620743</v>
       </c>
       <c r="C136">
-        <v>0.5577030128940117</v>
+        <v>0.92697502228056228</v>
       </c>
       <c r="D136">
-        <v>0.58529111653026844</v>
+        <v>0.90951287753296295</v>
       </c>
       <c r="E136">
-        <v>0.69344163964001027</v>
+        <v>0.91011014850759875</v>
       </c>
       <c r="F136">
-        <v>0.58613372186349832</v>
+        <v>0.83676637031321532</v>
       </c>
       <c r="G136">
-        <v>0.88925139545681331</v>
+        <v>0.13239371328525784</v>
       </c>
       <c r="H136">
-        <v>0.51560442651217875</v>
+        <v>0.091170990502053906</v>
       </c>
       <c r="I136">
-        <v>0.57397921329779189</v>
+        <v>0.10231383045535483</v>
       </c>
       <c r="J136">
-        <v>0.56787649893518521</v>
+        <v>0.13496430729154099</v>
       </c>
       <c r="K136">
-        <v>0.50811592673603778</v>
+        <v>0.16320207157286729</v>
       </c>
       <c r="L136">
-        <v>0.65396422563310252</v>
+        <v>0.27659423430653973</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>668.40531483372297</v>
+        <v>2560.7184733869017</v>
       </c>
       <c r="B137">
-        <v>643.61335762028261</v>
+        <v>2511.8573365762991</v>
       </c>
       <c r="C137">
-        <v>755.09067532796132</v>
+        <v>4016.8689018518021</v>
       </c>
       <c r="D137">
-        <v>680.98666386229502</v>
+        <v>1969.4210252665073</v>
       </c>
       <c r="E137">
-        <v>338.21730368612032</v>
+        <v>929.13928414499935</v>
       </c>
       <c r="F137">
-        <v>562.32071749264651</v>
+        <v>3214.275748914712</v>
       </c>
       <c r="G137">
-        <v>668.40531483372297</v>
+        <v>2560.718473386883</v>
       </c>
       <c r="H137">
-        <v>643.61335762028114</v>
+        <v>2511.8573365763668</v>
       </c>
       <c r="I137">
-        <v>755.09067532796155</v>
+        <v>4016.8689018517803</v>
       </c>
       <c r="J137">
-        <v>680.98666386229479</v>
+        <v>1969.4210252665732</v>
       </c>
       <c r="K137">
-        <v>338.21730368612134</v>
+        <v>929.1392841450122</v>
       </c>
       <c r="L137">
-        <v>562.32071749264639</v>
+        <v>3214.2757489147143</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.9635194614921589</v>
+        <v>1.960890823579178</v>
       </c>
       <c r="B138">
-        <v>1.9636566717300248</v>
+        <v>1.9609088611741201</v>
       </c>
       <c r="C138">
-        <v>1.9631106446090172</v>
+        <v>1.9605547367174549</v>
       </c>
       <c r="D138">
-        <v>1.9634536585559539</v>
+        <v>1.9611692651888462</v>
       </c>
       <c r="E138">
-        <v>1.9670027694011374</v>
+        <v>1.962520449420579</v>
       </c>
       <c r="F138">
-        <v>1.9641916407926256</v>
+        <v>1.9607023000352126</v>
       </c>
       <c r="G138">
-        <v>1.9635194614921589</v>
+        <v>1.960890823579178</v>
       </c>
       <c r="H138">
-        <v>1.9636566717300248</v>
+        <v>1.9609088611741201</v>
       </c>
       <c r="I138">
-        <v>1.9631106446090172</v>
+        <v>1.9605547367174549</v>
       </c>
       <c r="J138">
-        <v>1.9634536585559574</v>
+        <v>1.9611692651888462</v>
       </c>
       <c r="K138">
-        <v>1.9670027694011374</v>
+        <v>1.962520449420579</v>
       </c>
       <c r="L138">
-        <v>1.9641916407926256</v>
+        <v>1.9607023000352126</v>
       </c>
     </row>
     <row r="139">
@@ -3062,306 +3062,306 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.85717794444444451</v>
+        <v>0.97051392624916488</v>
       </c>
       <c r="B141">
-        <v>0.78554670306204233</v>
+        <v>0.96453227495419402</v>
       </c>
       <c r="C141">
-        <v>0.79035465766285662</v>
+        <v>0.96498704565831139</v>
       </c>
       <c r="D141">
-        <v>0.77859027889584864</v>
+        <v>0.95043287390453046</v>
       </c>
       <c r="E141">
-        <v>0.75928749352572011</v>
+        <v>0.92473839359055565</v>
       </c>
       <c r="F141">
-        <v>0.81871918739730098</v>
+        <v>0.92430740489203767</v>
       </c>
       <c r="G141">
-        <v>0.14282205555555555</v>
+        <v>0.02948607375083508</v>
       </c>
       <c r="H141">
-        <v>0.2144532969379577</v>
+        <v>0.035467725045806038</v>
       </c>
       <c r="I141">
-        <v>0.20964534233714344</v>
+        <v>0.035012954341688607</v>
       </c>
       <c r="J141">
-        <v>0.22140972110415139</v>
+        <v>0.049567126095469663</v>
       </c>
       <c r="K141">
-        <v>0.2407125064742798</v>
+        <v>0.075261606409444445</v>
       </c>
       <c r="L141">
-        <v>0.18128081260269896</v>
+        <v>0.075692595107962307</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.093150863713323873</v>
+        <v>0.021962768267394465</v>
       </c>
       <c r="B142">
-        <v>0.032756257537828376</v>
+        <v>0.0060185570627311726</v>
       </c>
       <c r="C142">
-        <v>0.027900676718505647</v>
+        <v>0.0051681231561060397</v>
       </c>
       <c r="D142">
-        <v>0.032406331874087639</v>
+        <v>0.007806833074218332</v>
       </c>
       <c r="E142">
-        <v>0.044056055772603055</v>
+        <v>0.01455373293728837</v>
       </c>
       <c r="F142">
-        <v>0.042554800411032635</v>
+        <v>0.018221499878867609</v>
       </c>
       <c r="G142">
-        <v>0.093150863713323859</v>
+        <v>0.021962768267394468</v>
       </c>
       <c r="H142">
-        <v>0.032756257537828376</v>
+        <v>0.0060185570627311691</v>
       </c>
       <c r="I142">
-        <v>0.027900676718505647</v>
+        <v>0.0051681231561060371</v>
       </c>
       <c r="J142">
-        <v>0.032406331874087639</v>
+        <v>0.0078068330742183346</v>
       </c>
       <c r="K142">
-        <v>0.044056055772603062</v>
+        <v>0.014553732937288366</v>
       </c>
       <c r="L142">
-        <v>0.042554800411032635</v>
+        <v>0.018221499878867609</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>9.202039683522953</v>
+        <v>44.18905278393219</v>
       </c>
       <c r="B143">
-        <v>23.981576715681218</v>
+        <v>160.25972087676726</v>
       </c>
       <c r="C143">
-        <v>28.327436844520658</v>
+        <v>186.71904993560329</v>
       </c>
       <c r="D143">
-        <v>24.02586883085079</v>
+        <v>121.74371667344683</v>
       </c>
       <c r="E143">
-        <v>17.234577181507358</v>
+        <v>63.539601666131134</v>
       </c>
       <c r="F143">
-        <v>19.239173477242822</v>
+        <v>50.726197680576419</v>
       </c>
       <c r="G143">
-        <v>1.5332338301778619</v>
+        <v>1.3425481429228381</v>
       </c>
       <c r="H143">
-        <v>6.5469413497649276</v>
+        <v>5.8930611899376242</v>
       </c>
       <c r="I143">
-        <v>7.5139877233906747</v>
+        <v>6.7747910187321061</v>
       </c>
       <c r="J143">
-        <v>6.8322981435980532</v>
+        <v>6.3491976354871156</v>
       </c>
       <c r="K143">
-        <v>5.4637779586244895</v>
+        <v>5.1712922542789972</v>
       </c>
       <c r="L143">
-        <v>4.2599380293580369</v>
+        <v>4.1540265955683937</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>6.3618631194780081e-19</v>
+        <v>4.6429068971260177e-79</v>
       </c>
       <c r="B144">
-        <v>4.4909096513510739e-93</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>3.4223638295616347e-119</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>1.1112427587334662e-88</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1.6080492343347694e-48</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>6.4452072047942443e-65</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.12576549431077658</v>
+        <v>0.18180874781195719</v>
       </c>
       <c r="H144">
-        <v>1.1412599713005891e-10</v>
+        <v>4.3785151271948654e-09</v>
       </c>
       <c r="I144">
-        <v>1.7050987607447838e-13</v>
+        <v>1.5630647372655765e-11</v>
       </c>
       <c r="J144">
-        <v>2.1472501331232799e-11</v>
+        <v>2.435546967702856e-10</v>
       </c>
       <c r="K144">
-        <v>8.9150100345593207e-08</v>
+        <v>2.4435069710946157e-07</v>
       </c>
       <c r="L144">
-        <v>2.365554716312524e-05</v>
+        <v>3.34546706132769e-05</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.67422243371022528</v>
+        <v>0.92705434040717272</v>
       </c>
       <c r="B145">
-        <v>0.72123363730458401</v>
+        <v>0.95272959446812089</v>
       </c>
       <c r="C145">
-        <v>0.73557826208052768</v>
+        <v>0.95485258210833479</v>
       </c>
       <c r="D145">
-        <v>0.71494015409771827</v>
+        <v>0.93512659419374478</v>
       </c>
       <c r="E145">
-        <v>0.67263682440581807</v>
+        <v>0.89620460135522673</v>
       </c>
       <c r="F145">
-        <v>0.73514867966236908</v>
+        <v>0.88858146179908482</v>
       </c>
       <c r="G145">
-        <v>-0.04013345517866368</v>
+        <v>-0.013973512091157051</v>
       </c>
       <c r="H145">
-        <v>0.15014023118049932</v>
+        <v>0.02366504455973286</v>
       </c>
       <c r="I145">
-        <v>0.1548689467548145</v>
+        <v>0.024878490791712039</v>
       </c>
       <c r="J145">
-        <v>0.15775959630602104</v>
+        <v>0.034260846384683991</v>
       </c>
       <c r="K145">
-        <v>0.1540618373543777</v>
+        <v>0.04672781417411552</v>
       </c>
       <c r="L145">
-        <v>0.097710304867767037</v>
+        <v>0.03996665201500943</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1.0401334551786638</v>
+        <v>1.013973512091157</v>
       </c>
       <c r="B146">
-        <v>0.84985976881950065</v>
+        <v>0.97633495544026716</v>
       </c>
       <c r="C146">
-        <v>0.84513105324518556</v>
+        <v>0.975121509208288</v>
       </c>
       <c r="D146">
-        <v>0.84224040369397901</v>
+        <v>0.96573915361531615</v>
       </c>
       <c r="E146">
-        <v>0.84593816264562216</v>
+        <v>0.95327218582588458</v>
       </c>
       <c r="F146">
-        <v>0.90228969513223289</v>
+        <v>0.96003334798499051</v>
       </c>
       <c r="G146">
-        <v>0.32577756628977478</v>
+        <v>0.072945659592827214</v>
       </c>
       <c r="H146">
-        <v>0.2787663626954161</v>
+        <v>0.047270405531879216</v>
       </c>
       <c r="I146">
-        <v>0.26442173791947238</v>
+        <v>0.045147417891665174</v>
       </c>
       <c r="J146">
-        <v>0.28505984590228173</v>
+        <v>0.064873405806255335</v>
       </c>
       <c r="K146">
-        <v>0.32736317559418193</v>
+        <v>0.10379539864477337</v>
       </c>
       <c r="L146">
-        <v>0.26485132033763087</v>
+        <v>0.11141853820091518</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>577.89808071269215</v>
+        <v>127.23408045756597</v>
       </c>
       <c r="B147">
-        <v>695.11885231692804</v>
+        <v>2189.1996449674798</v>
       </c>
       <c r="C147">
-        <v>720.04504793673834</v>
+        <v>2391.8841500397098</v>
       </c>
       <c r="D147">
-        <v>571.14604627980691</v>
+        <v>3584.7305506688817</v>
       </c>
       <c r="E147">
-        <v>346.81572181881722</v>
+        <v>3837.414680531971</v>
       </c>
       <c r="F147">
-        <v>614.38593284646902</v>
+        <v>3470.513605570949</v>
       </c>
       <c r="G147">
-        <v>577.89808071269215</v>
+        <v>127.23408045756588</v>
       </c>
       <c r="H147">
-        <v>695.11885231692793</v>
+        <v>2189.1996449675248</v>
       </c>
       <c r="I147">
-        <v>720.04504793673777</v>
+        <v>2391.8841500397593</v>
       </c>
       <c r="J147">
-        <v>571.14604627980589</v>
+        <v>3584.7305506688595</v>
       </c>
       <c r="K147">
-        <v>346.81572181881609</v>
+        <v>3837.4146805319861</v>
       </c>
       <c r="L147">
-        <v>614.3859328464689</v>
+        <v>3470.5136055709363</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9640774485706689</v>
+        <v>1.9787845190039841</v>
       </c>
       <c r="B148">
-        <v>1.9633825898207937</v>
+        <v>1.961048198605468</v>
       </c>
       <c r="C148">
-        <v>1.9632640503661141</v>
+        <v>1.9609562782966765</v>
       </c>
       <c r="D148">
-        <v>1.9641261789652129</v>
+        <v>1.9606259753822421</v>
       </c>
       <c r="E148">
-        <v>1.9668276608135937</v>
+        <v>1.9605823714287085</v>
       </c>
       <c r="F148">
-        <v>1.963832679926415</v>
+        <v>1.9606477694180406</v>
       </c>
       <c r="G148">
-        <v>1.9640774485706689</v>
+        <v>1.9787845190039841</v>
       </c>
       <c r="H148">
-        <v>1.9633825898207937</v>
+        <v>1.961048198605468</v>
       </c>
       <c r="I148">
-        <v>1.9632640503661141</v>
+        <v>1.9609562782966765</v>
       </c>
       <c r="J148">
-        <v>1.9641261789652129</v>
+        <v>1.9606259753822421</v>
       </c>
       <c r="K148">
-        <v>1.9668276608135937</v>
+        <v>1.9605823714287085</v>
       </c>
       <c r="L148">
-        <v>1.963832679926415</v>
+        <v>1.9606477694180406</v>
       </c>
     </row>
     <row r="149">
@@ -3404,114 +3404,114 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.66855465672426662</v>
+        <v>0.95012361427020409</v>
       </c>
       <c r="B151">
-        <v>0.70870249059074719</v>
+        <v>0.92800246341062709</v>
       </c>
       <c r="C151">
-        <v>0.33144534327573349</v>
+        <v>0.049876385729795844</v>
       </c>
       <c r="D151">
-        <v>0.29129750940925281</v>
+        <v>0.071997536589373023</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.031802453455637071</v>
+        <v>0.0058234933786020689</v>
       </c>
       <c r="B152">
-        <v>0.019573766634011509</v>
+        <v>0.0055239372146313704</v>
       </c>
       <c r="C152">
-        <v>0.031802453455637071</v>
+        <v>0.005823493378602068</v>
       </c>
       <c r="D152">
-        <v>0.019573766634011509</v>
+        <v>0.0055239372146313626</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>21.022109431175458</v>
+        <v>163.15354933884745</v>
       </c>
       <c r="B153">
-        <v>36.206750792629812</v>
+        <v>167.99656247949508</v>
       </c>
       <c r="C153">
-        <v>10.422005451185839</v>
+        <v>8.5646848870924082</v>
       </c>
       <c r="D153">
-        <v>14.882036495882826</v>
+        <v>13.033735502762724</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>3.2929198221767459e-77</v>
+        <v>0</v>
       </c>
       <c r="B154">
-        <v>1.6980350446016685e-167</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>8.1217138602747661e-24</v>
+        <v>2.6601522800610455e-17</v>
       </c>
       <c r="D154">
-        <v>3.8570567601906836e-44</v>
+        <v>7.6441979253922901e-38</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.6061203345173295</v>
+        <v>0.93870049921145815</v>
       </c>
       <c r="B155">
-        <v>0.67027731585519412</v>
+        <v>0.91717151323676815</v>
       </c>
       <c r="C155">
-        <v>0.26901102106879637</v>
+        <v>0.038453270671049929</v>
       </c>
       <c r="D155">
-        <v>0.25287233467369979</v>
+        <v>0.061166586415514118</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.73098897893120374</v>
+        <v>0.96154672932895002</v>
       </c>
       <c r="B156">
-        <v>0.74712766532630026</v>
+        <v>0.93883341358448602</v>
       </c>
       <c r="C156">
-        <v>0.39387966548267062</v>
+        <v>0.061299500788541759</v>
       </c>
       <c r="D156">
-        <v>0.32972268414480582</v>
+        <v>0.082828486763231929</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>736.09013678989481</v>
+        <v>1490.2221740373636</v>
       </c>
       <c r="B157">
-        <v>758.71767789087653</v>
+        <v>3097.5315962758405</v>
       </c>
       <c r="C157">
-        <v>736.09013678989436</v>
+        <v>1490.2221740373666</v>
       </c>
       <c r="D157">
-        <v>758.71767789087642</v>
+        <v>3097.5315962760023</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9631920000772922</v>
+        <v>1.9615571472475923</v>
       </c>
       <c r="B158">
-        <v>1.9630955785885988</v>
+        <v>1.9607301374046668</v>
       </c>
       <c r="C158">
-        <v>1.9631920000772922</v>
+        <v>1.9615571472475923</v>
       </c>
       <c r="D158">
-        <v>1.9630955785885988</v>
+        <v>1.9607301374046668</v>
       </c>
     </row>
     <row r="159">
@@ -3530,114 +3530,114 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.55392537158021882</v>
+        <v>0.92977871080686003</v>
       </c>
       <c r="B161">
-        <v>0.50286389511314089</v>
+        <v>0.87826343139386864</v>
       </c>
       <c r="C161">
-        <v>0.44607462841978113</v>
+        <v>0.070221289193139858</v>
       </c>
       <c r="D161">
-        <v>0.49713610488685916</v>
+        <v>0.12173656860613147</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.03301658715958191</v>
+        <v>0.0066567164130939384</v>
       </c>
       <c r="B162">
-        <v>0.021467655979169581</v>
+        <v>0.0068041356842773199</v>
       </c>
       <c r="C162">
-        <v>0.03301658715958191</v>
+        <v>0.0066567164130939384</v>
       </c>
       <c r="D162">
-        <v>0.021467655979169588</v>
+        <v>0.0068041356842773191</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>16.777184416514149</v>
+        <v>139.67527728505311</v>
       </c>
       <c r="B163">
-        <v>23.424257198879932</v>
+        <v>129.077883238472</v>
       </c>
       <c r="C163">
-        <v>13.510621987176636</v>
+        <v>10.548938070279322</v>
       </c>
       <c r="D163">
-        <v>23.157446969023461</v>
+        <v>17.891555115138971</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>3.3819766134194993e-53</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>3.1610254776008868e-91</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>4.6977543374527637e-37</v>
+        <v>2.6498386980663497e-25</v>
       </c>
       <c r="D164">
-        <v>1.1489600590650199e-89</v>
+        <v>1.2729369101644718e-68</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.48909976174386305</v>
+        <v>0.91672323271165534</v>
       </c>
       <c r="B165">
-        <v>0.46071917133988721</v>
+        <v>0.86492303632955103</v>
       </c>
       <c r="C165">
-        <v>0.38124901858342536</v>
+        <v>0.057165811097935226</v>
       </c>
       <c r="D165">
-        <v>0.45499138111360543</v>
+        <v>0.10839617354181381</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.61875098141657459</v>
+        <v>0.94283418890206472</v>
       </c>
       <c r="B166">
-        <v>0.54500861888639462</v>
+        <v>0.89160382645818625</v>
       </c>
       <c r="C166">
-        <v>0.51090023825613684</v>
+        <v>0.083276767288344489</v>
       </c>
       <c r="D166">
-        <v>0.53928082866011284</v>
+        <v>0.13507696367044911</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>686.51254503177518</v>
+        <v>1847.3604742548032</v>
       </c>
       <c r="B167">
-        <v>740.42869187874737</v>
+        <v>3561.0980468002408</v>
       </c>
       <c r="C167">
-        <v>686.51254503177427</v>
+        <v>1847.3604742547955</v>
       </c>
       <c r="D167">
-        <v>740.42869187874624</v>
+        <v>3561.0980468002476</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9634255207247362</v>
+        <v>1.9612489529408463</v>
       </c>
       <c r="B168">
-        <v>1.9631730550437092</v>
+        <v>1.960630370018049</v>
       </c>
       <c r="C168">
-        <v>1.9634255207247362</v>
+        <v>1.9612489529408463</v>
       </c>
       <c r="D168">
-        <v>1.9631730550437092</v>
+        <v>1.960630370018049</v>
       </c>
     </row>
     <row r="169">
@@ -3656,114 +3656,114 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.77751997169551468</v>
+        <v>0.96644434038609806</v>
       </c>
       <c r="B171">
-        <v>0.78843361429611192</v>
+        <v>0.9468112711133887</v>
       </c>
       <c r="C171">
-        <v>0.22248002830448535</v>
+        <v>0.033555659613901861</v>
       </c>
       <c r="D171">
-        <v>0.21156638570388803</v>
+        <v>0.053188728886611324</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.028117379594864329</v>
+        <v>0.004722076199294498</v>
       </c>
       <c r="B172">
-        <v>0.017383318195161142</v>
+        <v>0.0048524129181978402</v>
       </c>
       <c r="C172">
-        <v>0.028117379594864333</v>
+        <v>0.004722076199294504</v>
       </c>
       <c r="D172">
-        <v>0.017383318195161142</v>
+        <v>0.0048524129181978411</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>27.652646971324796</v>
+        <v>204.66513025149609</v>
       </c>
       <c r="B173">
-        <v>45.355760358547769</v>
+        <v>195.12174398073057</v>
       </c>
       <c r="C173">
-        <v>7.912544892523397</v>
+        <v>7.1061241279662539</v>
       </c>
       <c r="D173">
-        <v>12.170655989187386</v>
+        <v>10.961294882209925</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>4.1159472213068512e-115</v>
+        <v>0</v>
       </c>
       <c r="B174">
-        <v>2.2921717759232538e-217</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>9.5723501649718308e-15</v>
+        <v>1.4459505980296575e-12</v>
       </c>
       <c r="D174">
-        <v>3.116323750287873e-31</v>
+        <v>1.4475558368185273e-27</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.72231771352038499</v>
+        <v>0.95718596363591935</v>
       </c>
       <c r="B175">
-        <v>0.75430799198355081</v>
+        <v>0.93729782459841993</v>
       </c>
       <c r="C175">
-        <v>0.16727777012935563</v>
+        <v>0.024297282863723096</v>
       </c>
       <c r="D175">
-        <v>0.17744076339132697</v>
+        <v>0.043675282371642567</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.83272222987064437</v>
+        <v>0.97570271713627676</v>
       </c>
       <c r="B176">
-        <v>0.82255923660867303</v>
+        <v>0.95632471762835747</v>
       </c>
       <c r="C176">
-        <v>0.27768228647961507</v>
+        <v>0.042814036364080627</v>
       </c>
       <c r="D176">
-        <v>0.24569200801644908</v>
+        <v>0.062702175401580074</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>716.82411373189007</v>
+        <v>3419.0866385396489</v>
       </c>
       <c r="B177">
-        <v>751.72454710661657</v>
+        <v>3981.6219256284498</v>
       </c>
       <c r="C177">
-        <v>716.82411373188916</v>
+        <v>3419.0866385395234</v>
       </c>
       <c r="D177">
-        <v>751.72454710661611</v>
+        <v>3981.6219256284371</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9632789033161704</v>
+        <v>1.9606580579030044</v>
       </c>
       <c r="B178">
-        <v>1.9631247572779487</v>
+        <v>1.9605599678648118</v>
       </c>
       <c r="C178">
-        <v>1.9632789033161704</v>
+        <v>1.9606580579030044</v>
       </c>
       <c r="D178">
-        <v>1.9631247572779487</v>
+        <v>1.9605599678648118</v>
       </c>
     </row>
     <row r="179">
@@ -3782,114 +3782,114 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.64831027972027977</v>
+        <v>0.95559755447565031</v>
       </c>
       <c r="B181">
-        <v>0.69836990630630624</v>
+        <v>0.9347164702936942</v>
       </c>
       <c r="C181">
-        <v>0.35168972027972029</v>
+        <v>0.04440244552434975</v>
       </c>
       <c r="D181">
-        <v>0.3016300936936937</v>
+        <v>0.065283529706305757</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.10603470569586511</v>
+        <v>0.013695296814958791</v>
       </c>
       <c r="B182">
-        <v>0.017623816521566079</v>
+        <v>0.0043598117178635402</v>
       </c>
       <c r="C182">
-        <v>0.10603470569586511</v>
+        <v>0.013695296814958791</v>
       </c>
       <c r="D182">
-        <v>0.017623816521566079</v>
+        <v>0.0043598117178635402</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>6.1141328724936619</v>
+        <v>69.775600148504395</v>
       </c>
       <c r="B183">
-        <v>39.626485299124532</v>
+        <v>214.39376991071941</v>
       </c>
       <c r="C183">
-        <v>3.3167416080585648</v>
+        <v>3.2421674480140399</v>
       </c>
       <c r="D183">
-        <v>17.114913408488572</v>
+        <v>14.973933263865112</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.5415686988986827e-09</v>
+        <v>0</v>
       </c>
       <c r="B184">
-        <v>3.8083669869082755e-188</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.00095339257934777056</v>
+        <v>0.0011957990967234977</v>
       </c>
       <c r="D184">
-        <v>6.6499593008628318e-56</v>
+        <v>2.1899510275332035e-49</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.44015931904755629</v>
+        <v>0.9287472889265761</v>
       </c>
       <c r="B185">
-        <v>0.66377355112609049</v>
+        <v>0.92616885690858386</v>
       </c>
       <c r="C185">
-        <v>0.1435387596069968</v>
+        <v>0.017552179975275587</v>
       </c>
       <c r="D185">
-        <v>0.26703373851347795</v>
+        <v>0.05673591632119538</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.8564612403930032</v>
+        <v>0.98244782002472453</v>
       </c>
       <c r="B186">
-        <v>0.732966261486522</v>
+        <v>0.94326408367880454</v>
       </c>
       <c r="C186">
-        <v>0.55984068095244377</v>
+        <v>0.071252711073423916</v>
       </c>
       <c r="D186">
-        <v>0.33622644887390946</v>
+        <v>0.073831143091416127</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B187">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C187">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D187">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B188">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C188">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D188">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="189">
@@ -3908,114 +3908,114 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.67955496503496504</v>
+        <v>0.95453470911732163</v>
       </c>
       <c r="B191">
-        <v>0.5130423567567568</v>
+        <v>0.89471184305380169</v>
       </c>
       <c r="C191">
-        <v>0.32044503496503496</v>
+        <v>0.045465290882678477</v>
       </c>
       <c r="D191">
-        <v>0.48695764324324325</v>
+        <v>0.10528815694619839</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.088901781423700699</v>
+        <v>0.011161643942829161</v>
       </c>
       <c r="B192">
-        <v>0.019018684057999963</v>
+        <v>0.0052744490038037183</v>
       </c>
       <c r="C192">
-        <v>0.088901781423700699</v>
+        <v>0.011161643942829161</v>
       </c>
       <c r="D192">
-        <v>0.019018684057999963</v>
+        <v>0.0052744490038037183</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>7.6438846798383686</v>
+        <v>85.519186421509701</v>
       </c>
       <c r="B193">
-        <v>26.975702166993628</v>
+        <v>169.63133825136461</v>
       </c>
       <c r="C193">
-        <v>3.6044838453552761</v>
+        <v>4.0733507640590725</v>
       </c>
       <c r="D193">
-        <v>25.604171232783628</v>
+        <v>19.961925287412743</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>6.2704918656809652e-14</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>2.1726355493270433e-113</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>0.00033287439170081364</v>
+        <v>4.7222867086160226e-05</v>
       </c>
       <c r="D194">
-        <v>4.0294398469697103e-105</v>
+        <v>1.1665862670351134e-84</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.50503671568048603</v>
+        <v>0.93265178771164348</v>
       </c>
       <c r="B195">
-        <v>0.47570781302011983</v>
+        <v>0.88437104078491668</v>
       </c>
       <c r="C195">
-        <v>0.14592678561055594</v>
+        <v>0.023582369477000285</v>
       </c>
       <c r="D195">
-        <v>0.44962309950660628</v>
+        <v>0.094947354677313384</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.85407321438944406</v>
+        <v>0.97641763052299979</v>
       </c>
       <c r="B196">
-        <v>0.55037690049339372</v>
+        <v>0.9050526453226867</v>
       </c>
       <c r="C196">
-        <v>0.49496328431951397</v>
+        <v>0.067348212288356663</v>
       </c>
       <c r="D196">
-        <v>0.52429218697988023</v>
+        <v>0.1156289592150834</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B197">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C197">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D197">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B198">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C198">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D198">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="199">
@@ -4034,114 +4034,114 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.67213475524475519</v>
+        <v>0.95984759494327621</v>
       </c>
       <c r="B201">
-        <v>0.78858773693693696</v>
+        <v>0.95414103450180221</v>
       </c>
       <c r="C201">
-        <v>0.32786524475524476</v>
+        <v>0.04015240505672385</v>
       </c>
       <c r="D201">
-        <v>0.21141226306306304</v>
+        <v>0.045858965498197776</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.10548973965655818</v>
+        <v>0.013475687426196457</v>
       </c>
       <c r="B202">
-        <v>0.015662619065987742</v>
+        <v>0.0037656118269624914</v>
       </c>
       <c r="C202">
-        <v>0.10548973965655818</v>
+        <v>0.013475687426196457</v>
       </c>
       <c r="D202">
-        <v>0.015662619065987742</v>
+        <v>0.0037656118269624914</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>6.3715652103514246</v>
+        <v>71.228098766772547</v>
       </c>
       <c r="B203">
-        <v>50.348395349114988</v>
+        <v>253.38273787807131</v>
       </c>
       <c r="C203">
-        <v>3.108029708127749</v>
+        <v>2.9796183145854518</v>
       </c>
       <c r="D203">
-        <v>13.497887050203287</v>
+        <v>12.178357091891131</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>3.2163832178494518e-10</v>
+        <v>0</v>
       </c>
       <c r="B204">
-        <v>6.0925597924008629e-246</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>0.0019525473017862566</v>
+        <v>0.0029031189971175887</v>
       </c>
       <c r="D204">
-        <v>1.9974239799737255e-37</v>
+        <v>1.5415314969612379e-33</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.46505358774843852</v>
+        <v>0.93342788380167552</v>
       </c>
       <c r="B205">
-        <v>0.75784130175950248</v>
+        <v>0.94675837760324988</v>
       </c>
       <c r="C205">
-        <v>0.12078407725892812</v>
+        <v>0.013732693915123207</v>
       </c>
       <c r="D205">
-        <v>0.18066582788562852</v>
+        <v>0.038476308599645452</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.87921592274107185</v>
+        <v>0.98626730608487689</v>
       </c>
       <c r="B206">
-        <v>0.81933417211437143</v>
+        <v>0.96152369140035454</v>
       </c>
       <c r="C206">
-        <v>0.53494641225156137</v>
+        <v>0.066572116198324496</v>
       </c>
       <c r="D206">
-        <v>0.24215869824049757</v>
+        <v>0.0532416223967501</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B207">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C207">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D207">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B208">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C208">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D208">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="209">
@@ -4160,114 +4160,162 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.67313303544042602</v>
+        <v>0.91497420480353209</v>
       </c>
       <c r="B211">
-        <v>0.80593336153311879</v>
+        <v>0.90928637619859798</v>
       </c>
       <c r="C211">
-        <v>0.32686696455957398</v>
+        <v>0.95176306965465451</v>
       </c>
       <c r="D211">
-        <v>0.1940666384668813</v>
+        <v>0.085025795196467788</v>
+      </c>
+      <c r="E211">
+        <v>0.090713623801402105</v>
+      </c>
+      <c r="F211">
+        <v>0.048236930345345437</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.018947610865134138</v>
+        <v>0.0094682798286633771</v>
       </c>
       <c r="B212">
-        <v>0.033969553866768691</v>
+        <v>0.013645088215799406</v>
       </c>
       <c r="C212">
-        <v>0.018947610865134138</v>
+        <v>0.0044899687960143261</v>
       </c>
       <c r="D212">
-        <v>0.033969553866768684</v>
+        <v>0.0094682798286633771</v>
+      </c>
+      <c r="E212">
+        <v>0.013645088215799413</v>
+      </c>
+      <c r="F212">
+        <v>0.0044899687960143217</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>35.526011180600662</v>
+        <v>96.635737574382361</v>
       </c>
       <c r="B213">
-        <v>23.725167680860746</v>
+        <v>66.638365528905226</v>
       </c>
       <c r="C213">
-        <v>17.251091279325784</v>
+        <v>211.9754307645789</v>
       </c>
       <c r="D213">
-        <v>5.7129581162009435</v>
+        <v>8.9800678407358347</v>
+      </c>
+      <c r="E213">
+        <v>6.648078954620928</v>
+      </c>
+      <c r="F213">
+        <v>10.743266275739964</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>2.2541848209655715e-164</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>4.0540190004260733e-93</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>1.2681307447378228e-56</v>
+        <v>0</v>
       </c>
       <c r="D214">
-        <v>1.6051270841355099e-08</v>
+        <v>7.1293718261087413e-19</v>
+      </c>
+      <c r="E214">
+        <v>3.7748380582587662e-11</v>
+      </c>
+      <c r="F214">
+        <v>2.2833473947144928e-26</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.63593788399017859</v>
+        <v>0.89640322850161391</v>
       </c>
       <c r="B215">
-        <v>0.73924590031521831</v>
+        <v>0.88252704943480376</v>
       </c>
       <c r="C215">
-        <v>0.28967181310932655</v>
+        <v>0.94295876046296612</v>
       </c>
       <c r="D215">
-        <v>0.12737917724898085</v>
+        <v>0.0664548188945496</v>
+      </c>
+      <c r="E215">
+        <v>0.063954297037607855</v>
+      </c>
+      <c r="F215">
+        <v>0.039432621153657033</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.71032818689067345</v>
+        <v>0.93354518110545026</v>
       </c>
       <c r="B216">
-        <v>0.87262082275101926</v>
+        <v>0.9360457029623922</v>
       </c>
       <c r="C216">
-        <v>0.36406211600982141</v>
+        <v>0.96056737884634291</v>
       </c>
       <c r="D216">
-        <v>0.26075409968478175</v>
+        <v>0.10359677149838598</v>
+      </c>
+      <c r="E216">
+        <v>0.11747295056519635</v>
+      </c>
+      <c r="F216">
+        <v>0.057041239537033842</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>769.32867392684295</v>
+        <v>1666.3679237029833</v>
       </c>
       <c r="B217">
-        <v>744.87416467366813</v>
+        <v>2096.9637957258751</v>
       </c>
       <c r="C217">
-        <v>769.32867392684295</v>
+        <v>2578.9412709447056</v>
       </c>
       <c r="D217">
-        <v>744.87416467366825</v>
+        <v>1666.3679237029835</v>
+      </c>
+      <c r="E217">
+        <v>2096.9637957258246</v>
+      </c>
+      <c r="F217">
+        <v>2578.9412709447938</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9630523191021896</v>
+        <v>1.9613886194721628</v>
       </c>
       <c r="B218">
-        <v>1.9631538724192268</v>
+        <v>1.9610959152913421</v>
       </c>
       <c r="C218">
-        <v>1.9630523191021896</v>
+        <v>1.9608842715129464</v>
       </c>
       <c r="D218">
-        <v>1.9631538724192268</v>
+        <v>1.9613886194721628</v>
+      </c>
+      <c r="E218">
+        <v>1.9610959152913421</v>
+      </c>
+      <c r="F218">
+        <v>1.9608842715129464</v>
       </c>
     </row>
     <row r="219">
@@ -4283,117 +4331,171 @@
       <c r="D219">
         <v>0</v>
       </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.54762939874025029</v>
+        <v>0.91905081125022381</v>
       </c>
       <c r="B221">
-        <v>0.35671075118258944</v>
+        <v>0.92627348518159169</v>
       </c>
       <c r="C221">
-        <v>0.45237060125974971</v>
+        <v>0.88481875701854684</v>
       </c>
       <c r="D221">
-        <v>0.64328924881741067</v>
+        <v>0.080949188749776274</v>
+      </c>
+      <c r="E221">
+        <v>0.073726514818408306</v>
+      </c>
+      <c r="F221">
+        <v>0.11518124298145324</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.019971966260047536</v>
+        <v>0.0089181298679442741</v>
       </c>
       <c r="B222">
-        <v>0.040794085269298917</v>
+        <v>0.01286920496042457</v>
       </c>
       <c r="C222">
-        <v>0.01997196626004754</v>
+        <v>0.0064028036024932821</v>
       </c>
       <c r="D222">
-        <v>0.040794085269298917</v>
+        <v>0.0089181298679442741</v>
+      </c>
+      <c r="E222">
+        <v>0.012869204960424581</v>
+      </c>
+      <c r="F222">
+        <v>0.006402803602493283</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>27.419904060009504</v>
+        <v>103.05420809733903</v>
       </c>
       <c r="B223">
-        <v>8.7441782020062888</v>
+        <v>71.975968059415607</v>
       </c>
       <c r="C223">
-        <v>22.650278664083469</v>
+        <v>138.19239382479174</v>
       </c>
       <c r="D223">
-        <v>15.76917939379662</v>
+        <v>9.0769241924524628</v>
+      </c>
+      <c r="E223">
+        <v>5.7289098312702542</v>
+      </c>
+      <c r="F223">
+        <v>17.98918881981654</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>9.6993356968149595e-116</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>1.9047756457739595e-17</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>2.8553920099156417e-87</v>
+        <v>0</v>
       </c>
       <c r="D224">
-        <v>1.0863109084699289e-47</v>
+        <v>1.8819358526791658e-19</v>
+      </c>
+      <c r="E224">
+        <v>1.3635919088162188e-08</v>
+      </c>
+      <c r="F224">
+        <v>1.5010451023879624e-69</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.50842286633718814</v>
+        <v>0.90156513853558851</v>
       </c>
       <c r="B225">
-        <v>0.27660696404609914</v>
+        <v>0.90101751108339978</v>
       </c>
       <c r="C225">
-        <v>0.41316406885668755</v>
+        <v>0.87226556544957212</v>
       </c>
       <c r="D225">
-        <v>0.56318546168092043</v>
+        <v>0.063463516035140916</v>
+      </c>
+      <c r="E225">
+        <v>0.048470540720216337</v>
+      </c>
+      <c r="F225">
+        <v>0.10262805141247847</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.58683593114331245</v>
+        <v>0.93653648396485911</v>
       </c>
       <c r="B226">
-        <v>0.43681453831907974</v>
+        <v>0.95152945927978361</v>
       </c>
       <c r="C226">
-        <v>0.49157713366281186</v>
+        <v>0.89737194858752156</v>
       </c>
       <c r="D226">
-        <v>0.72339303595390092</v>
+        <v>0.098434861464411633</v>
+      </c>
+      <c r="E226">
+        <v>0.098982488916600275</v>
+      </c>
+      <c r="F226">
+        <v>0.12773443455042802</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>762.9348701063451</v>
+        <v>3276.4692425898111</v>
       </c>
       <c r="B227">
-        <v>651.34135240769592</v>
+        <v>932.07640250350698</v>
       </c>
       <c r="C227">
-        <v>762.93487010634499</v>
+        <v>3868.968931365886</v>
       </c>
       <c r="D227">
-        <v>651.34135240769592</v>
+        <v>3276.4692425897965</v>
+      </c>
+      <c r="E227">
+        <v>932.07640250348561</v>
+      </c>
+      <c r="F227">
+        <v>3868.9689313658778</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9630782413993928</v>
+        <v>1.9606882803407748</v>
       </c>
       <c r="B228">
-        <v>1.9636127788548634</v>
+        <v>1.9625123833103302</v>
       </c>
       <c r="C228">
-        <v>1.9630782413993928</v>
+        <v>1.960577326483433</v>
       </c>
       <c r="D228">
-        <v>1.9636127788548634</v>
+        <v>1.9606882803407748</v>
+      </c>
+      <c r="E228">
+        <v>1.9625123833103302</v>
+      </c>
+      <c r="F228">
+        <v>1.960577326483433</v>
       </c>
     </row>
     <row r="229">
@@ -4409,117 +4511,171 @@
       <c r="D229">
         <v>0</v>
       </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.77923756581932357</v>
+        <v>0.94347340045052486</v>
       </c>
       <c r="B231">
-        <v>0.83735588728429189</v>
+        <v>0.95118554606619887</v>
       </c>
       <c r="C231">
-        <v>0.22076243418067637</v>
+        <v>0.9624913294544104</v>
       </c>
       <c r="D231">
-        <v>0.16264411271570811</v>
+        <v>0.056526599549475233</v>
+      </c>
+      <c r="E231">
+        <v>0.048814453933800989</v>
+      </c>
+      <c r="F231">
+        <v>0.037508670545589526</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.016593721639626451</v>
+        <v>0.0077425403934309493</v>
       </c>
       <c r="B232">
-        <v>0.030639165256481707</v>
+        <v>0.010568411485842968</v>
       </c>
       <c r="C232">
-        <v>0.016593721639626451</v>
+        <v>0.0039289781552813933</v>
       </c>
       <c r="D232">
-        <v>0.030639165256481717</v>
+        <v>0.0077425403934309484</v>
+      </c>
+      <c r="E232">
+        <v>0.010568411485842972</v>
+      </c>
+      <c r="F232">
+        <v>0.0039289781552813959</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>46.959782907197507</v>
+        <v>121.8557931258585</v>
       </c>
       <c r="B233">
-        <v>27.329592052353629</v>
+        <v>90.002697883250477</v>
       </c>
       <c r="C233">
-        <v>13.303973573564541</v>
+        <v>244.97243084963827</v>
       </c>
       <c r="D233">
-        <v>5.3083728409115434</v>
+        <v>7.30078200140027</v>
+      </c>
+      <c r="E233">
+        <v>4.6189017147175724</v>
+      </c>
+      <c r="F233">
+        <v>9.5466732221887689</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1.5066917618882948e-227</v>
+        <v>0</v>
       </c>
       <c r="B234">
-        <v>3.5911001843470553e-108</v>
+        <v>0</v>
       </c>
       <c r="C234">
-        <v>1.7668846781897299e-36</v>
+        <v>0</v>
       </c>
       <c r="D234">
-        <v>1.5481159086268251e-07</v>
+        <v>3.5628655413680114e-13</v>
+      </c>
+      <c r="E234">
+        <v>4.2585566968551583e-06</v>
+      </c>
+      <c r="F234">
+        <v>2.5207328474382687e-21</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.74666293427209296</v>
+        <v>0.92829277026520229</v>
       </c>
       <c r="B235">
-        <v>0.77718549114417879</v>
+        <v>0.93045165715594524</v>
       </c>
       <c r="C235">
-        <v>0.18818780263344578</v>
+        <v>0.95478784399564098</v>
       </c>
       <c r="D235">
-        <v>0.10247371657559502</v>
+        <v>0.041345969364152718</v>
+      </c>
+      <c r="E235">
+        <v>0.028080565023547392</v>
+      </c>
+      <c r="F235">
+        <v>0.029805185086820098</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.81181219736655419</v>
+        <v>0.95865403063584742</v>
       </c>
       <c r="B236">
-        <v>0.89752628342440499</v>
+        <v>0.9719194349764525</v>
       </c>
       <c r="C236">
-        <v>0.25333706572790698</v>
+        <v>0.97019481491317983</v>
       </c>
       <c r="D236">
-        <v>0.22281450885582121</v>
+        <v>0.071707229734797748</v>
+      </c>
+      <c r="E236">
+        <v>0.069548342844054589</v>
+      </c>
+      <c r="F236">
+        <v>0.045212156004358954</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>765.03893574556128</v>
+        <v>3322.6821015016385</v>
       </c>
       <c r="B237">
-        <v>613.3420874275165</v>
+        <v>1243.3789051444444</v>
       </c>
       <c r="C237">
-        <v>765.03893574556128</v>
+        <v>3294.9465140830271</v>
       </c>
       <c r="D237">
-        <v>613.34208742751423</v>
+        <v>3322.682101501644</v>
+      </c>
+      <c r="E237">
+        <v>1243.378905144428</v>
+      </c>
+      <c r="F237">
+        <v>3294.946514082962</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.9630696630128537</v>
+        <v>1.9606782030097396</v>
       </c>
       <c r="B238">
-        <v>1.9638392768348687</v>
+        <v>1.9618737345747654</v>
       </c>
       <c r="C238">
-        <v>1.9630696630128537</v>
+        <v>1.9606842171963408</v>
       </c>
       <c r="D238">
-        <v>1.9638392768348687</v>
+        <v>1.9606782030097396</v>
+      </c>
+      <c r="E238">
+        <v>1.9618737345747654</v>
+      </c>
+      <c r="F238">
+        <v>1.9606842171963408</v>
       </c>
     </row>
     <row r="239">
@@ -4535,165 +4691,171 @@
       <c r="D239">
         <v>0</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.62844753164054978</v>
+        <v>0.93029835034804764</v>
       </c>
       <c r="B241">
-        <v>0.72859985666507399</v>
+        <v>0.93980178780158119</v>
       </c>
       <c r="C241">
-        <v>0.69840000000000002</v>
+        <v>0.93936057360567027</v>
       </c>
       <c r="D241">
-        <v>0.37155246835945022</v>
+        <v>0.069701649651952413</v>
       </c>
       <c r="E241">
-        <v>0.27140014333492596</v>
+        <v>0.060198212198418664</v>
       </c>
       <c r="F241">
-        <v>0.30159999999999998</v>
+        <v>0.060639426394329711</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.047642158815598301</v>
+        <v>0.0099539720888292306</v>
       </c>
       <c r="B242">
-        <v>0.028297935946733445</v>
+        <v>0.0070460086770488027</v>
       </c>
       <c r="C242">
-        <v>0.024443944326283655</v>
+        <v>0.0055641575146183671</v>
       </c>
       <c r="D242">
-        <v>0.047642158815598301</v>
+        <v>0.0099539720888292306</v>
       </c>
       <c r="E242">
-        <v>0.028297935946733445</v>
+        <v>0.0070460086770488027</v>
       </c>
       <c r="F242">
-        <v>0.024443944326283655</v>
+        <v>0.0055641575146183671</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>13.190996110671472</v>
+        <v>93.460011947599071</v>
       </c>
       <c r="B243">
-        <v>25.747455858142878</v>
+        <v>133.38073097508789</v>
       </c>
       <c r="C243">
-        <v>28.571493645934904</v>
+        <v>168.82350493093452</v>
       </c>
       <c r="D243">
-        <v>7.7988167958040124</v>
+        <v>7.0023955291350033</v>
       </c>
       <c r="E243">
-        <v>9.590810575223415</v>
+        <v>8.5435904151671416</v>
       </c>
       <c r="F243">
-        <v>12.338434254888268</v>
+        <v>10.898222459557532</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>5.6663360823063232e-36</v>
+        <v>0</v>
       </c>
       <c r="B244">
-        <v>5.529028876439396e-106</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>5.0584227548774264e-123</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>2.0287853419122471e-14</v>
+        <v>2.9301518894499929e-12</v>
       </c>
       <c r="E244">
-        <v>1.1756895252217141e-20</v>
+        <v>1.813330582463805e-17</v>
       </c>
       <c r="F244">
-        <v>4.7651128394910539e-32</v>
+        <v>2.787165142948349e-27</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.5349238022077254</v>
+        <v>0.91078312570821263</v>
       </c>
       <c r="B245">
-        <v>0.67304971849368611</v>
+        <v>0.92598776050476495</v>
       </c>
       <c r="C245">
-        <v>0.65041542305648214</v>
+        <v>0.92845178434444031</v>
       </c>
       <c r="D245">
-        <v>0.27802873892662583</v>
+        <v>0.050186425012117439</v>
       </c>
       <c r="E245">
-        <v>0.21585000516353803</v>
+        <v>0.04638418490160244</v>
       </c>
       <c r="F245">
-        <v>0.2536154230564821</v>
+        <v>0.049730637133099727</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.72197126107337417</v>
+        <v>0.94981357498788266</v>
       </c>
       <c r="B246">
-        <v>0.78414999483646186</v>
+        <v>0.95361581509839743</v>
       </c>
       <c r="C246">
-        <v>0.7463845769435179</v>
+        <v>0.95026936286690022</v>
       </c>
       <c r="D246">
-        <v>0.4650761977922746</v>
+        <v>0.089216874291787387</v>
       </c>
       <c r="E246">
-        <v>0.32695028150631389</v>
+        <v>0.074012239495234888</v>
       </c>
       <c r="F246">
-        <v>0.34958457694351786</v>
+        <v>0.071548215655559688</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B247">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C247">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D247">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E247">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F247">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B248">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C248">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D248">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E248">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F248">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="249">
@@ -4718,162 +4880,162 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.64354401917128379</v>
+        <v>0.93308670194012477</v>
       </c>
       <c r="B251">
-        <v>0.50474126453256885</v>
+        <v>0.89030671670760453</v>
       </c>
       <c r="C251">
-        <v>0.49101271402550084</v>
+        <v>0.89754987170345957</v>
       </c>
       <c r="D251">
-        <v>0.3564559808287161</v>
+        <v>0.066913298059875309</v>
       </c>
       <c r="E251">
-        <v>0.49525873546743115</v>
+        <v>0.10969328329239539</v>
       </c>
       <c r="F251">
-        <v>0.50898728597449905</v>
+        <v>0.10245012829654035</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.047430451229882029</v>
+        <v>0.0098075446734761929</v>
       </c>
       <c r="B252">
-        <v>0.030763589887024129</v>
+        <v>0.0086832389715470609</v>
       </c>
       <c r="C252">
-        <v>0.02676448917290862</v>
+        <v>0.0070141571064269957</v>
       </c>
       <c r="D252">
-        <v>0.047430451229882029</v>
+        <v>0.0098075446734761929</v>
       </c>
       <c r="E252">
-        <v>0.030763589887024129</v>
+        <v>0.0086832389715470609</v>
       </c>
       <c r="F252">
-        <v>0.02676448917290862</v>
+        <v>0.0070141571064269957</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>13.568161433932124</v>
+        <v>95.139684090717566</v>
       </c>
       <c r="B253">
-        <v>16.407098988972844</v>
+        <v>102.53163820838411</v>
       </c>
       <c r="C253">
-        <v>18.345678516536402</v>
+        <v>127.96261305311289</v>
       </c>
       <c r="D253">
-        <v>7.5153402842632557</v>
+        <v>6.8226350516493248</v>
       </c>
       <c r="E253">
-        <v>16.098860285363767</v>
+        <v>12.632761075888222</v>
       </c>
       <c r="F253">
-        <v>19.017261367711921</v>
+        <v>14.606192410869498</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>9.2241130892392058e-38</v>
+        <v>0</v>
       </c>
       <c r="B254">
-        <v>4.0944375839674414e-52</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>1.1771634811475773e-62</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>1.5765785562817077e-13</v>
+        <v>1.0256992063145524e-11</v>
       </c>
       <c r="E254">
-        <v>1.7328358044647293e-50</v>
+        <v>6.5131008869314031e-36</v>
       </c>
       <c r="F254">
-        <v>2.0394419668554426e-66</v>
+        <v>3.9110520574028077e-47</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.55043588137951083</v>
+        <v>0.91385855504960878</v>
       </c>
       <c r="B255">
-        <v>0.44435093528421349</v>
+        <v>0.87328282336945862</v>
       </c>
       <c r="C255">
-        <v>0.43847280177040526</v>
+        <v>0.88379829089034545</v>
       </c>
       <c r="D255">
-        <v>0.26334784303694314</v>
+        <v>0.047685151169359299</v>
       </c>
       <c r="E255">
-        <v>0.4348684062190758</v>
+        <v>0.092669389954249448</v>
       </c>
       <c r="F255">
-        <v>0.45644737371940347</v>
+        <v>0.088698547483426204</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.73665215696305675</v>
+        <v>0.95231484883064077</v>
       </c>
       <c r="B256">
-        <v>0.56513159378092415</v>
+        <v>0.90733061004575044</v>
       </c>
       <c r="C256">
-        <v>0.54355262628059642</v>
+        <v>0.91130145251657368</v>
       </c>
       <c r="D256">
-        <v>0.44956411862048906</v>
+        <v>0.086141444950391319</v>
       </c>
       <c r="E256">
-        <v>0.55564906471578646</v>
+        <v>0.12671717663054133</v>
       </c>
       <c r="F256">
-        <v>0.56152719822959463</v>
+        <v>0.11620170910965449</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B257">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C257">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D257">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E257">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F257">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B258">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C258">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D258">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E258">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F258">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="259">
@@ -4898,162 +5060,162 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.72800844918816643</v>
+        <v>0.94781209868504079</v>
       </c>
       <c r="B261">
-        <v>0.76665887880235706</v>
+        <v>0.94846410792971858</v>
       </c>
       <c r="C261">
-        <v>0.81058728597449914</v>
+        <v>0.96360510635365204</v>
       </c>
       <c r="D261">
-        <v>0.27199155081183363</v>
+        <v>0.052187901314959116</v>
       </c>
       <c r="E261">
-        <v>0.23334112119764291</v>
+        <v>0.051535892070281489</v>
       </c>
       <c r="F261">
-        <v>0.18941271402550089</v>
+        <v>0.036394893646347924</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.044043036009825565</v>
+        <v>0.0087188465221062217</v>
       </c>
       <c r="B262">
-        <v>0.027204901781253697</v>
+        <v>0.0067607638389863408</v>
       </c>
       <c r="C262">
-        <v>0.02102335527530675</v>
+        <v>0.004445102483046655</v>
       </c>
       <c r="D262">
-        <v>0.044043036009825565</v>
+        <v>0.0087188465221062217</v>
       </c>
       <c r="E262">
-        <v>0.027204901781253697</v>
+        <v>0.0067607638389863408</v>
       </c>
       <c r="F262">
-        <v>0.02102335527530675</v>
+        <v>0.004445102483046655</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>16.529479235395012</v>
+        <v>108.70842791898082</v>
       </c>
       <c r="B263">
-        <v>28.180909637786119</v>
+        <v>140.28948954855437</v>
       </c>
       <c r="C263">
-        <v>38.556513713421602</v>
+        <v>216.77905290795479</v>
       </c>
       <c r="D263">
-        <v>6.1755858690385246</v>
+        <v>5.9856428465209435</v>
       </c>
       <c r="E263">
-        <v>8.577171977089554</v>
+        <v>7.6227913439450061</v>
       </c>
       <c r="F263">
-        <v>9.0096329318078929</v>
+        <v>8.1876388193873577</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>9.1689849837848415e-53</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>1.1518373659318232e-120</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>4.7446158270312605e-182</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>1.0658225399092857e-09</v>
+        <v>2.3410534322084809e-09</v>
       </c>
       <c r="E264">
-        <v>5.3012326462339161e-17</v>
+        <v>3.069543406217209e-14</v>
       </c>
       <c r="F264">
-        <v>1.6015872389159137e-18</v>
+        <v>3.527973008020848e-16</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.64154996188228763</v>
+        <v>0.93071839509006116</v>
       </c>
       <c r="B265">
-        <v>0.7132544165217034</v>
+        <v>0.93520931638748006</v>
       </c>
       <c r="C265">
-        <v>0.76931748125913868</v>
+        <v>0.95489027646166402</v>
       </c>
       <c r="D265">
-        <v>0.18553306350595483</v>
+        <v>0.035094197719979514</v>
       </c>
       <c r="E265">
-        <v>0.17993665891698923</v>
+        <v>0.038281100528043011</v>
       </c>
       <c r="F265">
-        <v>0.14814290931014046</v>
+        <v>0.027680063754359871</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.81446693649404522</v>
+        <v>0.96490580228002043</v>
       </c>
       <c r="B266">
-        <v>0.82006334108301071</v>
+        <v>0.9617188994719571</v>
       </c>
       <c r="C266">
-        <v>0.8518570906898596</v>
+        <v>0.97231993624564006</v>
       </c>
       <c r="D266">
-        <v>0.35845003811771242</v>
+        <v>0.069281604909938718</v>
       </c>
       <c r="E266">
-        <v>0.2867455834782966</v>
+        <v>0.064790683612519967</v>
       </c>
       <c r="F266">
-        <v>0.23068251874086132</v>
+        <v>0.045109723538335977</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B267">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C267">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D267">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E267">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F267">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B268">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C268">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D268">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E268">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F268">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="269">
@@ -5078,162 +5240,162 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.7635556818181819</v>
+        <v>0.96388342442466557</v>
       </c>
       <c r="B271">
-        <v>0.71894826591033489</v>
+        <v>0.94095693521296386</v>
       </c>
       <c r="C271">
-        <v>0.64896157539775978</v>
+        <v>0.91824702148350512</v>
       </c>
       <c r="D271">
-        <v>0.23644431818181819</v>
+        <v>0.03611657557533432</v>
       </c>
       <c r="E271">
-        <v>0.28105173408966511</v>
+        <v>0.059043064787036192</v>
       </c>
       <c r="F271">
-        <v>0.35103842460224022</v>
+        <v>0.081752978516494934</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.043074621785381566</v>
+        <v>0.0075403555780090645</v>
       </c>
       <c r="B272">
-        <v>0.028145906400619047</v>
+        <v>0.0067334064639793436</v>
       </c>
       <c r="C272">
-        <v>0.024459131871160798</v>
+        <v>0.006780059160838835</v>
       </c>
       <c r="D272">
-        <v>0.043074621785381566</v>
+        <v>0.0075403555780090645</v>
       </c>
       <c r="E272">
-        <v>0.028145906400619047</v>
+        <v>0.0067334064639793436</v>
       </c>
       <c r="F272">
-        <v>0.024459131871160798</v>
+        <v>0.006780059160838835</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>17.72634674826822</v>
+        <v>127.8299696151951</v>
       </c>
       <c r="B273">
-        <v>25.543617451045108</v>
+        <v>139.74456172320129</v>
       </c>
       <c r="C273">
-        <v>26.532486059447411</v>
+        <v>135.43348217184268</v>
       </c>
       <c r="D273">
-        <v>5.4891792053310935</v>
+        <v>4.7897708803900256</v>
       </c>
       <c r="E273">
-        <v>9.985527916183349</v>
+        <v>8.7686767615900933</v>
       </c>
       <c r="F273">
-        <v>14.352039412164974</v>
+        <v>12.057856218821014</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>3.1102225447963643e-59</v>
+        <v>0</v>
       </c>
       <c r="B274">
-        <v>9.3255946649483833e-105</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>1.0261444519695335e-110</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>5.4827464614395137e-08</v>
+        <v>1.729089512143621e-06</v>
       </c>
       <c r="E274">
-        <v>3.653030271700266e-22</v>
+        <v>2.6108675673548047e-18</v>
       </c>
       <c r="F274">
-        <v>1.4208152087541158e-41</v>
+        <v>6.370519840113192e-33</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.67899823577821961</v>
+        <v>0.94910020706621834</v>
       </c>
       <c r="B275">
-        <v>0.66369656866794913</v>
+        <v>0.92775577907517026</v>
       </c>
       <c r="C275">
-        <v>0.60094718461135255</v>
+        <v>0.90495440056651166</v>
       </c>
       <c r="D275">
-        <v>0.15188687214185587</v>
+        <v>0.021333358216887081</v>
       </c>
       <c r="E275">
-        <v>0.2258000368472794</v>
+        <v>0.045841908649242633</v>
       </c>
       <c r="F275">
-        <v>0.30302403381583298</v>
+        <v>0.068460357599501434</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.84811312785814419</v>
+        <v>0.9786666417831128</v>
       </c>
       <c r="B276">
-        <v>0.77419996315272066</v>
+        <v>0.95415809135075746</v>
       </c>
       <c r="C276">
-        <v>0.69697596618416702</v>
+        <v>0.93153964240049858</v>
       </c>
       <c r="D276">
-        <v>0.32100176422178051</v>
+        <v>0.050899792933781558</v>
       </c>
       <c r="E276">
-        <v>0.33630343133205082</v>
+        <v>0.072244220924829752</v>
       </c>
       <c r="F276">
-        <v>0.39905281538864745</v>
+        <v>0.095045599433488434</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B277">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C277">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D277">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E277">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F277">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B278">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C278">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D278">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E278">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F278">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="279">
@@ -5258,162 +5420,162 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.48997092803030301</v>
+        <v>0.92105074878838233</v>
       </c>
       <c r="B281">
-        <v>0.44743421654973387</v>
+        <v>0.88586780015999944</v>
       </c>
       <c r="C281">
-        <v>0.57974844876495457</v>
+        <v>0.90182670791638198</v>
       </c>
       <c r="D281">
-        <v>0.51002907196969693</v>
+        <v>0.078949251211617569</v>
       </c>
       <c r="E281">
-        <v>0.55256578345026619</v>
+        <v>0.11413219984000059</v>
       </c>
       <c r="F281">
-        <v>0.42025155123504543</v>
+        <v>0.0981732920836179</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.049594702832403484</v>
+        <v>0.010297153356517593</v>
       </c>
       <c r="B282">
-        <v>0.030785474604091936</v>
+        <v>0.00879756152179988</v>
       </c>
       <c r="C282">
-        <v>0.025050581163648878</v>
+        <v>0.0070741047873009583</v>
       </c>
       <c r="D282">
-        <v>0.049594702832403484</v>
+        <v>0.010297153356517593</v>
       </c>
       <c r="E282">
-        <v>0.030785474604091936</v>
+        <v>0.00879756152179988</v>
       </c>
       <c r="F282">
-        <v>0.025050581163648878</v>
+        <v>0.0070741047873009583</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>9.8795012379865046</v>
+        <v>89.44712357861529</v>
       </c>
       <c r="B283">
-        <v>14.533939213341279</v>
+        <v>100.6946979529347</v>
       </c>
       <c r="C283">
-        <v>23.143113725690036</v>
+        <v>127.4828031294209</v>
       </c>
       <c r="D283">
-        <v>10.283942494690407</v>
+        <v>7.6670948249640825</v>
       </c>
       <c r="E283">
-        <v>17.948912289200841</v>
+        <v>12.973163024457083</v>
       </c>
       <c r="F283">
-        <v>16.776119822915575</v>
+        <v>13.877839675184507</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>9.378865321572299e-22</v>
+        <v>0</v>
       </c>
       <c r="B284">
-        <v>1.779431091798772e-42</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>2.1722649685666391e-90</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>2.4693238788165208e-23</v>
+        <v>2.1860393755890877e-14</v>
       </c>
       <c r="E284">
-        <v>1.8556899259616713e-60</v>
+        <v>9.6232312922811967e-38</v>
       </c>
       <c r="F284">
-        <v>4.4233552778743074e-54</v>
+        <v>8.0257921415548e-43</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.39261426568945978</v>
+        <v>0.90086270133255442</v>
       </c>
       <c r="B285">
-        <v>0.38700092660420093</v>
+        <v>0.86861977215182706</v>
       </c>
       <c r="C285">
-        <v>0.53057301605729457</v>
+        <v>0.88795759689035858</v>
       </c>
       <c r="D285">
-        <v>0.41267240962885371</v>
+        <v>0.058761203755789596</v>
       </c>
       <c r="E285">
-        <v>0.49213249350473326</v>
+        <v>0.096884171831828167</v>
       </c>
       <c r="F285">
-        <v>0.37107611852738542</v>
+        <v>0.084304181057594546</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.58732759037114624</v>
+        <v>0.94123879624421025</v>
       </c>
       <c r="B286">
-        <v>0.5078675064952668</v>
+        <v>0.90311582816817182</v>
       </c>
       <c r="C286">
-        <v>0.62892388147261458</v>
+        <v>0.91569581894240537</v>
       </c>
       <c r="D286">
-        <v>0.60738573431054022</v>
+        <v>0.099137298667445542</v>
       </c>
       <c r="E286">
-        <v>0.61299907339579907</v>
+        <v>0.13138022784817299</v>
       </c>
       <c r="F286">
-        <v>0.46942698394270543</v>
+        <v>0.11204240310964125</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B287">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C287">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D287">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E287">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F287">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B288">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C288">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D288">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E288">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F288">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="289">
@@ -5438,162 +5600,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.74647339015151504</v>
+        <v>0.96104262101145577</v>
       </c>
       <c r="B291">
-        <v>0.83361751753993141</v>
+        <v>0.96432256648410541</v>
       </c>
       <c r="C291">
-        <v>0.77128997583728576</v>
+        <v>0.94660849518959522</v>
       </c>
       <c r="D291">
-        <v>0.25352660984848485</v>
+        <v>0.038957378988544178</v>
       </c>
       <c r="E291">
-        <v>0.16638248246006868</v>
+        <v>0.035677433515894655</v>
       </c>
       <c r="F291">
-        <v>0.2287100241627143</v>
+        <v>0.053391504810404736</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.041241073367083672</v>
+        <v>0.007124982739726682</v>
       </c>
       <c r="B292">
-        <v>0.023090308067498802</v>
+        <v>0.0054629257480239765</v>
       </c>
       <c r="C292">
-        <v>0.021451200496662697</v>
+        <v>0.0055928734671661312</v>
       </c>
       <c r="D292">
-        <v>0.041241073367083672</v>
+        <v>0.007124982739726682</v>
       </c>
       <c r="E292">
-        <v>0.023090308067498802</v>
+        <v>0.0054629257480239765</v>
       </c>
       <c r="F292">
-        <v>0.021451200496662697</v>
+        <v>0.0055928734671661312</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>18.100241560330204</v>
+        <v>134.88350163334175</v>
       </c>
       <c r="B293">
-        <v>36.102485731375126</v>
+        <v>176.52126552020511</v>
       </c>
       <c r="C293">
-        <v>35.955562298589321</v>
+        <v>169.25262134872415</v>
       </c>
       <c r="D293">
-        <v>6.147429956341429</v>
+        <v>5.4677155596925138</v>
       </c>
       <c r="E293">
-        <v>7.2057281337992833</v>
+        <v>6.5308289296810829</v>
       </c>
       <c r="F293">
-        <v>10.661875273521227</v>
+        <v>9.5463459210812118</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>2.7073650338594195e-61</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>7.1860814853888282e-168</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>5.1737217956445696e-167</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>1.2626717909968904e-09</v>
+        <v>4.8318507437330035e-08</v>
       </c>
       <c r="E294">
-        <v>1.3768369134132206e-12</v>
+        <v>7.3452567467442353e-11</v>
       </c>
       <c r="F294">
-        <v>7.4868491898498426e-25</v>
+        <v>2.2444589195545442e-21</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.66551528323551223</v>
+        <v>0.94707376139643273</v>
       </c>
       <c r="B295">
-        <v>0.78829019027535985</v>
+        <v>0.95361224680347567</v>
       </c>
       <c r="C295">
-        <v>0.7291802914498875</v>
+        <v>0.93564340696954607</v>
       </c>
       <c r="D295">
-        <v>0.17256850293248205</v>
+        <v>0.024988519373521149</v>
       </c>
       <c r="E295">
-        <v>0.12105515519549706</v>
+        <v>0.024967113835264954</v>
       </c>
       <c r="F295">
-        <v>0.18660033977531601</v>
+        <v>0.042426416590355551</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.82743149706751784</v>
+        <v>0.9750114806264788</v>
       </c>
       <c r="B296">
-        <v>0.87894484480450297</v>
+        <v>0.97503288616473516</v>
       </c>
       <c r="C296">
-        <v>0.81339966022468402</v>
+        <v>0.95757358340964438</v>
       </c>
       <c r="D296">
-        <v>0.33448471676448766</v>
+        <v>0.052926238603567211</v>
       </c>
       <c r="E296">
-        <v>0.21170980972464029</v>
+        <v>0.046387753196524356</v>
       </c>
       <c r="F296">
-        <v>0.27081970855011261</v>
+        <v>0.064356593030453921</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B297">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="C297">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="D297">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="E297">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="F297">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B298">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="C298">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="D298">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="E298">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="F298">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="299">
@@ -5618,66 +5780,66 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.6974696232129447</v>
+        <v>0.93750436207479437</v>
       </c>
       <c r="B301">
-        <v>0.30253037678705541</v>
+        <v>0.062495637925205627</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.016588501149465751</v>
+        <v>0.003916482138975442</v>
       </c>
       <c r="B302">
-        <v>0.016588501149465751</v>
+        <v>0.003916482138975442</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>42.045367265469153</v>
+        <v>239.37409358901022</v>
       </c>
       <c r="B303">
-        <v>18.237354542233533</v>
+        <v>15.957084880656339</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>1.0235756396279104e-201</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>4.7066863060464641e-62</v>
+        <v>1.195804680987959e-55</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.66490563930105728</v>
+        <v>0.92982591692164984</v>
       </c>
       <c r="B305">
-        <v>0.26996639287516794</v>
+        <v>0.054817192772061055</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.73003360712483212</v>
+        <v>0.9451828072279389</v>
       </c>
       <c r="B306">
-        <v>0.33509436069894288</v>
+        <v>0.0701740830783502</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B307">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B308">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="309">
@@ -5690,66 +5852,66 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.51625838756514419</v>
+        <v>0.89957836143098968</v>
       </c>
       <c r="B311">
-        <v>0.48374161243485581</v>
+        <v>0.1004216385690105</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.017898327036198723</v>
+        <v>0.0047678348602338229</v>
       </c>
       <c r="B312">
-        <v>0.017898327036198723</v>
+        <v>0.0047678348602338229</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>28.843946505225329</v>
+        <v>188.67649316756595</v>
       </c>
       <c r="B313">
-        <v>27.027197092583332</v>
+        <v>21.062314763998696</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>1.148646841954028e-124</v>
+        <v>0</v>
       </c>
       <c r="B314">
-        <v>1.0621709896396841e-113</v>
+        <v>1.4502223474772416e-93</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.48112315573166137</v>
+        <v>0.89023079972268238</v>
       </c>
       <c r="B315">
-        <v>0.44860638060137298</v>
+        <v>0.091074076860703249</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.55139361939862708</v>
+        <v>0.90892592313929699</v>
       </c>
       <c r="B316">
-        <v>0.51887684426833869</v>
+        <v>0.10976920027731775</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B317">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B318">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="319">
@@ -5762,66 +5924,66 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.78627198922191122</v>
+        <v>0.95622477969056907</v>
       </c>
       <c r="B321">
-        <v>0.21372801077808878</v>
+        <v>0.043775220309430943</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.014649885056455836</v>
+        <v>0.0033286107386024735</v>
       </c>
       <c r="B322">
-        <v>0.014649885056455836</v>
+        <v>0.0033286107386024735</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>53.670864050596826</v>
+        <v>287.2744381315199</v>
       </c>
       <c r="B323">
-        <v>14.589057180616187</v>
+        <v>13.151198426947962</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>1.3560704932340388e-262</v>
+        <v>0</v>
       </c>
       <c r="B324">
-        <v>9.4542211980600908e-43</v>
+        <v>1.0193911792537553e-38</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.75751359706875443</v>
+        <v>0.9496988837243453</v>
       </c>
       <c r="B325">
-        <v>0.18496961862493197</v>
+        <v>0.037249324343207213</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.815030381375068</v>
+        <v>0.96275067565679284</v>
       </c>
       <c r="B326">
-        <v>0.2424864029312456</v>
+        <v>0.050301116275654673</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
       <c r="B327">
-        <v>771.00773195876286</v>
+        <v>4074.0014709487623</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
       <c r="B328">
-        <v>1.963045583110818</v>
+        <v>1.9605464497671024</v>
       </c>
     </row>
     <row r="329">
